--- a/data/hotels_by_city/Dallas/Dallas_shard_659.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_659.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,915 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r549875405-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>106476</t>
+  </si>
+  <si>
+    <t>549875405</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Guest friendly</t>
+  </si>
+  <si>
+    <t>Great experience to stay with this hotel. Friendly and cooperative front office staff and nice facility. This hotel provides free transport to the near by offices. The breakfast was good and evening light dinner was delicious.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded December 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2017</t>
+  </si>
+  <si>
+    <t>Great experience to stay with this hotel. Friendly and cooperative front office staff and nice facility. This hotel provides free transport to the near by offices. The breakfast was good and evening light dinner was delicious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r527420953-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>527420953</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>The best value in business travel.</t>
+  </si>
+  <si>
+    <t>I've stayed in hundreds and hundreds of hotels over the years--this hotel is just fantastic for business travel (and for family stays as well I would think).  The rooms are large, well appointed (king bed, very big desk space, couch and a small table for two in the kitchenette).  There is also a basketball court and an outdoor pool.  The "free" happy hour food is plenty for me after a long day working -- always featured a nice fruit / salad selection complimenting an entree (e.g., grilled sausage links, flatbread pizza's) and other odds and ends.Beyond all that, the people are really, really great.  Today I had the pleasant experience of being helped by  a professional young lady named Katie, who took a bad situation (my reservation was all messed up--not sure what happened) and she just fixed it with a smile.  What more could you ask for?  Bottom line, if I'm in the area and need lodging, this is my number one choice.  If you try it, I think you'll see what I mean.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I've stayed in hundreds and hundreds of hotels over the years--this hotel is just fantastic for business travel (and for family stays as well I would think).  The rooms are large, well appointed (king bed, very big desk space, couch and a small table for two in the kitchenette).  There is also a basketball court and an outdoor pool.  The "free" happy hour food is plenty for me after a long day working -- always featured a nice fruit / salad selection complimenting an entree (e.g., grilled sausage links, flatbread pizza's) and other odds and ends.Beyond all that, the people are really, really great.  Today I had the pleasant experience of being helped by  a professional young lady named Katie, who took a bad situation (my reservation was all messed up--not sure what happened) and she just fixed it with a smile.  What more could you ask for?  Bottom line, if I'm in the area and need lodging, this is my number one choice.  If you try it, I think you'll see what I mean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r525909660-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>525909660</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>This Residence Inn was a surprisingly very good choice for a family celebration.  The front desk was absolutely outstanding, in every possible way.  We had a plumbing problem at 12:40 A.M. on a Sunday morning.  Nevertheless, this hotel had a repairman at our room in approximately 20 minutes.  He completely repaired this problem in about 5 minutes.Our room was clean, quiet, and comfortable.  The breakfast was good, as was the pool and whirlpool.    This hotel had the strongest water pressure/flow of any hotel at which I have ever stayed.  I could not complain about any part of my experience, even if I wanted to.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded September 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2017</t>
+  </si>
+  <si>
+    <t>This Residence Inn was a surprisingly very good choice for a family celebration.  The front desk was absolutely outstanding, in every possible way.  We had a plumbing problem at 12:40 A.M. on a Sunday morning.  Nevertheless, this hotel had a repairman at our room in approximately 20 minutes.  He completely repaired this problem in about 5 minutes.Our room was clean, quiet, and comfortable.  The breakfast was good, as was the pool and whirlpool.    This hotel had the strongest water pressure/flow of any hotel at which I have ever stayed.  I could not complain about any part of my experience, even if I wanted to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r493826076-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>493826076</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel to stay for business travel</t>
+  </si>
+  <si>
+    <t>Me and my wife stayed there from 2016 December end to 2017 March end . It's around 3 months and we never felt we were away from home . Rooms are good , comfortable and spacious . Some of the stuffs are very friendly and helpful like Nia Mc who helped us in every possible ways .Specially I would appreciated Traci Rockafellow the GM who was always there to fulfill your needs , she was very helpful and always handles your queries with a big smile . Only the improvement which could be made is on room service and some more varieties on breakfast  menu.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r492894541-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>492894541</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Really nice place to stay in the area</t>
+  </si>
+  <si>
+    <t>We stayed for a few days and really can't say anything that bad about the place.It does not have much of a 'grounds' and is stuck between a bunch of apartments.The pool is small and the exercise room is really small.But the good things - rooms are spacious and clean.  Staff was amazing friendly and breakfast was really good.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>We stayed for a few days and really can't say anything that bad about the place.It does not have much of a 'grounds' and is stuck between a bunch of apartments.The pool is small and the exercise room is really small.But the good things - rooms are spacious and clean.  Staff was amazing friendly and breakfast was really good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r486390708-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>486390708</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>good hotel</t>
+  </si>
+  <si>
+    <t>I stayed here because that is where Priceline sent me.  The hotel is very clean and the staff are polite and efficient.  My bed was comfortable, the shower was good, and the room itself was large and comfortable.  There is plenty of available parking around the perimeter of the hotel.  I did not have the breakfast, but it looked to be fairly basic.  The wi-fi service was good.  I was happy with my stay here and would visit again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here because that is where Priceline sent me.  The hotel is very clean and the staff are polite and efficient.  My bed was comfortable, the shower was good, and the room itself was large and comfortable.  There is plenty of available parking around the perimeter of the hotel.  I did not have the breakfast, but it looked to be fairly basic.  The wi-fi service was good.  I was happy with my stay here and would visit again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r467940494-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>467940494</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Nice and clean Residence inn with Excellent location in Plano</t>
+  </si>
+  <si>
+    <t>This was a very well kept and clean Marriott property in Plano.  It is centrally located on N Preston Avenue and close to shops at Legacy and all other great places in Plano.  The hotel was clean and the staff was very friendly.  One of the better Residence inn's I have stayed in.  Recommend it if you need a apartment like hotel or extended stay in Plano.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r465837241-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>465837241</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>Ok hotel in Plano</t>
+  </si>
+  <si>
+    <t>The overall hotel is fine, rooms were clean, but did notice some ants hanging out in the kitchen and let the desk know.  Not a big deal, but would prefer them to live elsewhere. The breakfast was average for this type of location and the size of the eating area is not very large.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded March 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2017</t>
+  </si>
+  <si>
+    <t>The overall hotel is fine, rooms were clean, but did notice some ants hanging out in the kitchen and let the desk know.  Not a big deal, but would prefer them to live elsewhere. The breakfast was average for this type of location and the size of the eating area is not very large.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r463354307-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>463354307</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Sunny Cool Feb. Weekend</t>
+  </si>
+  <si>
+    <t>I was happily surprised that all my experiences matched the happy reviews and I saw none of the things referred to in the negative reviews. It was a perfect place for my wife and I to spend a weekend night. Great front desk help, cheerful, efficient and helpful. The suite setup was great. Room was large, quiet and clean and for us the location was great. Lots of good restaurant choices close by.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded February 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2017</t>
+  </si>
+  <si>
+    <t>I was happily surprised that all my experiences matched the happy reviews and I saw none of the things referred to in the negative reviews. It was a perfect place for my wife and I to spend a weekend night. Great front desk help, cheerful, efficient and helpful. The suite setup was great. Room was large, quiet and clean and for us the location was great. Lots of good restaurant choices close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r457661052-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>457661052</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Beautiful setting and friendly service</t>
+  </si>
+  <si>
+    <t>It as a delightful surprise to pull up to a hotel that had such a nice residential feel. The trees are beautiful in that area. I had a great stay even though it was only one night. The front desk was very friendly. Chris and his front desk team took great care of me. I really enjoyed breakfast, especially the chocolate croissant! My room was spacious and clean.Thanks for making my trip so nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>It as a delightful surprise to pull up to a hotel that had such a nice residential feel. The trees are beautiful in that area. I had a great stay even though it was only one night. The front desk was very friendly. Chris and his front desk team took great care of me. I really enjoyed breakfast, especially the chocolate croissant! My room was spacious and clean.Thanks for making my trip so nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r455719792-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>455719792</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Trip to Plano TX</t>
+  </si>
+  <si>
+    <t>Nice property. Centrally located. Good breakfast and encouraging evening drinks surely added advantage. Friendly staff. Rooms size is OK. But most terrific thing is carpets are full of bedbugs. Surely requires pest control.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r454867081-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>454867081</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Needs facelift</t>
+  </si>
+  <si>
+    <t>This place needs complete facelift.  Dirty, scuffed walls and plaster repair all over the place.  Musty, awful smell in many hallways, including entry near the lobby and breakfast area.  Finally, when I was leaving I saw two SUV's up on blocks- their wheels were stolen the night before- near the office! Yikes, is this Plano or Compton??MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>This place needs complete facelift.  Dirty, scuffed walls and plaster repair all over the place.  Musty, awful smell in many hallways, including entry near the lobby and breakfast area.  Finally, when I was leaving I saw two SUV's up on blocks- their wheels were stolen the night before- near the office! Yikes, is this Plano or Compton??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r442541236-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>442541236</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Gross!</t>
+  </si>
+  <si>
+    <t>I saw housekeepers. I am not sure what they do. This hotel is beat up, which wouldn''t be so bad if it was clean. The common areas are worse than rooms, but that is not praise for the room conidtions by any means.RI's get a lot of wear and tear. This one is just excessive.The morning and evening food presentations are simply disgusting.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>I saw housekeepers. I am not sure what they do. This hotel is beat up, which wouldn''t be so bad if it was clean. The common areas are worse than rooms, but that is not praise for the room conidtions by any means.RI's get a lot of wear and tear. This one is just excessive.The morning and evening food presentations are simply disgusting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r439150739-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>439150739</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>mediocre at best, and dirty</t>
+  </si>
+  <si>
+    <t>i can't believe these reviews are so good. the rooms are dirty and not well cleaned - shower had left over soap scum from previous guests, very dusty and not well cleaned. there's dust and dirt everywhere... beds are mediocre. The daily cleaning was a lame - they should have skipped it... did not clean coffee pot, only made bed and replaced towels. hallways were gross. Breakfast was beyond lame... fruit was grapes and cantaloupe... and looked five days old it was so 'mushy'; eggs dry and rubbery, very small breakfast area.... not well lit... many of the women in my group commented on being concerned about their safety... definitely not my choice in the plano area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>i can't believe these reviews are so good. the rooms are dirty and not well cleaned - shower had left over soap scum from previous guests, very dusty and not well cleaned. there's dust and dirt everywhere... beds are mediocre. The daily cleaning was a lame - they should have skipped it... did not clean coffee pot, only made bed and replaced towels. hallways were gross. Breakfast was beyond lame... fruit was grapes and cantaloupe... and looked five days old it was so 'mushy'; eggs dry and rubbery, very small breakfast area.... not well lit... many of the women in my group commented on being concerned about their safety... definitely not my choice in the plano area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r438763785-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>438763785</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Stayed for one month but Service is deterioting from my previous Visit</t>
+  </si>
+  <si>
+    <t>Room is good,I was given a north facing room but later on when I asked for Sun facing room, they gave me that so happy about that. Front Desk is always helpful and Chris :).But Breakfast Food is deteriorating, the Chef is always irritable and impolite if anything asked. Sometimes they will have fewer option for Indians. The Tea water is always cold. If you are late you wont get some breakfast items.Bad experience with the Laundry, lot of Pet hairs - not sure if somebody put his Pet inside the Laundry to wash. Not sure how RI will control this but its a problem for the residents. Also there is no Paper Towel in Laundry to clean it if you want.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Room is good,I was given a north facing room but later on when I asked for Sun facing room, they gave me that so happy about that. Front Desk is always helpful and Chris :).But Breakfast Food is deteriorating, the Chef is always irritable and impolite if anything asked. Sometimes they will have fewer option for Indians. The Tea water is always cold. If you are late you wont get some breakfast items.Bad experience with the Laundry, lot of Pet hairs - not sure if somebody put his Pet inside the Laundry to wash. Not sure how RI will control this but its a problem for the residents. Also there is no Paper Towel in Laundry to clean it if you want.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r433516962-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>433516962</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Ugh</t>
+  </si>
+  <si>
+    <t>Crazy loud... very thin walls.  I'm painfully tired this morning.  I could hear neighbors... the people above and below me.  It's been a bad experience.If you are in any way a light sleeper then stay away.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Crazy loud... very thin walls.  I'm painfully tired this morning.  I could hear neighbors... the people above and below me.  It's been a bad experience.If you are in any way a light sleeper then stay away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r426689332-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>426689332</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Watch out for hidden pet cleaning fee of 100.00 at checkout</t>
+  </si>
+  <si>
+    <t>We thought this was a "pet friendly" hotel based on the Marriott website and booked the hotel for four days. Unfortunately, at the time of check in we were informed of a 100.00 "pet cleaning fee". If we had known at the time of booking the hotel, we would have picked another hotel. This is a warning. I spoke to the manager and he was very rude. We have always stayed at Marriott hotels and have never been treated this way. Our room was dirty in the bathroom. There were stains that looked like blood near the sink and the kitchen had a layer of dust.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>We thought this was a "pet friendly" hotel based on the Marriott website and booked the hotel for four days. Unfortunately, at the time of check in we were informed of a 100.00 "pet cleaning fee". If we had known at the time of booking the hotel, we would have picked another hotel. This is a warning. I spoke to the manager and he was very rude. We have always stayed at Marriott hotels and have never been treated this way. Our room was dirty in the bathroom. There were stains that looked like blood near the sink and the kitchen had a layer of dust.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r425442987-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>425442987</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Wow</t>
+  </si>
+  <si>
+    <t>We stayed here last weekend and I must say I was beyond impressed! The hotel was clean, smelled great and the room was awesome! Had a bed and a pull out couch for the kids plus a full kitchen. The only thing I didn't like was the bathroom door didn't shut properly but that really was no big deal.  I got this hotel at a great rate and will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r396996063-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>396996063</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Interim stop before flight</t>
+  </si>
+  <si>
+    <t>Great location in Central Plano! It's near all the shopping and restaurants! Clean rooms, good breakfast &amp; the staff is great!  They have your room ready if you check-in through your app! I always request extra towels &amp; go-and-behold, they listen.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r392264792-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>392264792</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel for Solitude But Still Close to Action</t>
+  </si>
+  <si>
+    <t>This hotel is stuck away in a secluded area right off of Preston Rd. But the environment is quiet with great pool area, nice selection for free breakfast, and rooms provide appliances for meal prep if you want to stay in. Trees provide nice shade so we enjoyed a nice morning walk. Although you may feel that you are away from activities, restaurants, etc., this hotel is located only minutes away from shopping, restaurants, movie theater, and North Dallas Tollway. Highly recommend for one night or a lengthy stay.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r390240557-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>390240557</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Outdated and dirty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By far, this is the worst Marriott property I've ever stayed at.  Marriott should consider removing it's name from this particular property.  Hotel doesn't appear to own a vacuum at all...debris in elevator, hallways and stairway.  Paint all over glass near elevators, wallpaper peeling in bathroom, awful ring in toilet bowl, breakfast area dirty and laundry room a disaster.  Sofa sleeper unbearable to sleep on - huge lump in center made it so you had to sleep across top of mattress, which actually resulted in mattress folding up on me at midnight.  Furniture was stained.  The icing on the cake was the terrible smells all throughout the hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r351885466-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>351885466</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Very comfortable stay</t>
+  </si>
+  <si>
+    <t>The staff was super friendly and accommodating.  The enormous breakfast buffet was a bonus.  A great weekend rate on the room.  Big screen swivel TV.  Huge room with couch, kitchenette, etc.  Fabulous.  Nice clean location.  Small workout gym with only 3 machines, but ok.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r350068514-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>350068514</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>wonderful customer service</t>
+  </si>
+  <si>
+    <t>My name is Dustin Walker and my wife is Lucielle Walker.  We spent 3 weeks at the Residence Inn in Plano, Texas on Whitestone Ln.  I cannot say enough good things about the staff there.  Michael Moreno is the Manager and he went so far above and beyond the normal call of duty, there is not enough room here to describe.  Just know this : If you are staying in Plano or Frisco, TX, and customer service is important to you, STAY HERE!  The rest of the staff, including Bobby and Edgar and Jay,  is wonderful as well.  Thank you so much to everyone at the Residence Inn Plano, TX.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>My name is Dustin Walker and my wife is Lucielle Walker.  We spent 3 weeks at the Residence Inn in Plano, Texas on Whitestone Ln.  I cannot say enough good things about the staff there.  Michael Moreno is the Manager and he went so far above and beyond the normal call of duty, there is not enough room here to describe.  Just know this : If you are staying in Plano or Frisco, TX, and customer service is important to you, STAY HERE!  The rest of the staff, including Bobby and Edgar and Jay,  is wonderful as well.  Thank you so much to everyone at the Residence Inn Plano, TX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r342235198-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>342235198</t>
+  </si>
+  <si>
+    <t>01/23/2016</t>
+  </si>
+  <si>
+    <t>I Feel like part of the Marriott family</t>
+  </si>
+  <si>
+    <t>By the time my new home is ready for occupancy, I will have been here for over two months. I hope everyone has a choice to stay here if even for a day, a month, or more. These employees are the happiest and most caring it's ever been my pleasure to know. From Michael, Chris, Mary at the front desk, to Edward who knows everything about my PC to keep it running, and Norma and her mother and Martha who keep my suite clean; I cannot say enough about their professionalism. Breakfast every morning, and three nights a week special treats in the restaurant helps you feel like you're in their living room. I even met another woman and became friends, and we will visit each other again. The suites are large, quiet, clean, and modern. If I have forgotten to mention the other people I've met here, please accept my apologizes because I wouldn't want to offend or omit my personal thanks to you as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>By the time my new home is ready for occupancy, I will have been here for over two months. I hope everyone has a choice to stay here if even for a day, a month, or more. These employees are the happiest and most caring it's ever been my pleasure to know. From Michael, Chris, Mary at the front desk, to Edward who knows everything about my PC to keep it running, and Norma and her mother and Martha who keep my suite clean; I cannot say enough about their professionalism. Breakfast every morning, and three nights a week special treats in the restaurant helps you feel like you're in their living room. I even met another woman and became friends, and we will visit each other again. The suites are large, quiet, clean, and modern. If I have forgotten to mention the other people I've met here, please accept my apologizes because I wouldn't want to offend or omit my personal thanks to you as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r341007853-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>341007853</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel Ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms were great and clean nice but bit upto date like some residence inns I have stayed in. We went as a family and bad to say they over charged all our cards. The people there were so rude we was rushed out of breakfast even told to keep quite by a staff member while eating breakfast. They had rude attitudes when asked for extra towels etc. Sometimes they never even came I have been a Marriott rewards member for almost 7 years now really thinking about switching to holiday inn. I will not stay here again!!  Nice hotel rude staff!! </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r329757801-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>329757801</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel for a Few Nights or a Few Weeks</t>
+  </si>
+  <si>
+    <t>I was very pleased with the hotel.  The room was very comfortable, clean and quiet...and a great value. While we stayed only one night I think it would be very nice for a longer stay.  Even the studio we stayed in was roomy with a spacious living/work area, kitchen area with full-size refrigerator, cook top, microwave, pots and pans...even a dishwasher. I was really more like a small, comfortable apartment.  The staff was excellent...courteous and professional while offering the usual hotel service but also services including grocery shopping for you if needed!  No complaints at all, I'll stay here again.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r325130617-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>325130617</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Terrific refresh of this convenient property.</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed at this particular Residence Inn on a number of occasions over about 10 years.  It was becoming a little long in the tooth and faced "in-family" competition from a much newer Residence in in The Colony nearby.  However a refresh has vaulted this hotel back to the top of our list when we are in this area.While the rooms remain the same size, by the use of lively color schemes and the replacement of counter tops in the bathroom and in the kitchen, we can really not say enough about how pleasant this place is.  In addition, an attractive modern work desk has been added complete with an electrical outlet strip for connecting and recharging your electronic gear.In summary, beautifully refurbished property at competitive prices.  Congratulations Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed at this particular Residence Inn on a number of occasions over about 10 years.  It was becoming a little long in the tooth and faced "in-family" competition from a much newer Residence in in The Colony nearby.  However a refresh has vaulted this hotel back to the top of our list when we are in this area.While the rooms remain the same size, by the use of lively color schemes and the replacement of counter tops in the bathroom and in the kitchen, we can really not say enough about how pleasant this place is.  In addition, an attractive modern work desk has been added complete with an electrical outlet strip for connecting and recharging your electronic gear.In summary, beautifully refurbished property at competitive prices.  Congratulations Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r319292850-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>319292850</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Needs updating</t>
+  </si>
+  <si>
+    <t>had to visit Plano for work, and the Residence is near our location so I thought what the heck.  They have a pool, hot tub and a decent breakfast every morning. Monday- Weds they have drinks and snacks in for dinner/cocktail hour. The rooms need updating.  I came in from work to find my bathroom flooded. The maintenance guy said I could cut the water on and off as I needed or I could try to get a new room.  The staff gave me a room that was a suite, so I now had a much bigger room .  Overall its save, in a good location, but needs some work.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>had to visit Plano for work, and the Residence is near our location so I thought what the heck.  They have a pool, hot tub and a decent breakfast every morning. Monday- Weds they have drinks and snacks in for dinner/cocktail hour. The rooms need updating.  I came in from work to find my bathroom flooded. The maintenance guy said I could cut the water on and off as I needed or I could try to get a new room.  The staff gave me a room that was a suite, so I now had a much bigger room .  Overall its save, in a good location, but needs some work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r318065975-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>318065975</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Extremely pleasant extended stay</t>
+  </si>
+  <si>
+    <t>I was in Plano for 6 weeks staying at the Residence Inn. The entire staff is exceptionally helpful and kind. The breakfast is really good - much better than other Residence Inns I've stayed at - and they also offer good dinners / snacks some nights. But really, it's the staff that makes it worth staying. They're fantastic.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r309999928-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>309999928</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Great service from Scott!</t>
+  </si>
+  <si>
+    <t>Scott, the front desk associate, was always helpful and empathetic during my entire stay.  He provided local places for me to eat (instead of chain restaurants that most other front desk attendants typically say).  And he was particularly kind when I was complaining about my rental car issues.  This hotel really knows how to train their employees to provide great customer service!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r288010711-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>288010711</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Stayed here in the residence inn for 10days. It's a good standard and better in my view than that Marriott courtyard, as I've stayed there for 5 days too in the last month. Rooms are spacious with kitchen which makes things very convenient compared to the normal hotel rooms</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r283311612-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>283311612</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Love this place!</t>
+  </si>
+  <si>
+    <t>I've stayed in this hotel several times, most recently, with my son for 10 days when his house  was struck by lightning and it took out the A/C in the heat of summer. First of all, the staff is super friendly! There's also a great buffet every morning and a happy/social hour Mon.- Wed. with free beer and wine and some sort of food. Hamburgers one night, waffles another, etc.  It's conveniently located to pretty much everything and the rooms are clean and quiet.I will say that the bedroom and the toilet room are a little on the cramped side, so if you're a large person, keep that in mind. They also have a pool and jacuzzi (the jets are not very powerful). Overall, I think it's a great value and when I return, I will definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I've stayed in this hotel several times, most recently, with my son for 10 days when his house  was struck by lightning and it took out the A/C in the heat of summer. First of all, the staff is super friendly! There's also a great buffet every morning and a happy/social hour Mon.- Wed. with free beer and wine and some sort of food. Hamburgers one night, waffles another, etc.  It's conveniently located to pretty much everything and the rooms are clean and quiet.I will say that the bedroom and the toilet room are a little on the cramped side, so if you're a large person, keep that in mind. They also have a pool and jacuzzi (the jets are not very powerful). Overall, I think it's a great value and when I return, I will definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r274837494-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>274837494</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Great Staff &amp; Service</t>
+  </si>
+  <si>
+    <t>Have stayed at this Residence Inn in Plano the last 3 weeks. Rooms are standard Residence Inn rooms, and are in good condition and very clean. Hotel Staff is outstanding; check in process very simple and quick and everyone on staff is very pleasant and always asking if I need any assistance.  Breakfast is very good quality and very tasty. Nightly reception with free beer and wine; and dinner is usually pretty basic but good.  Good location if you need to be in the Legacy area of Plano near all of the big Corporate Headquarters.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r250978213-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>250978213</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Look forward to returning</t>
+  </si>
+  <si>
+    <t>The residence inn never disappoints me overall.  This one was pretty good compared to other Residence Inns.   I stayed with my daughter and her one year old and four year old for ten days.  I kept the kids while she worked 10 hour days.  There were several indoor and outdoor play spaces to take the kids nearby.  The property was clean inside and out and the service was very good.  (Some are more elegant with nicer furniture)  Breakfast has plenty of choices for healthy or other foods.  The rooms are spacious and the kitchen has almost everything you need to take care of some of the other family meals.  The oven had something (looked like plastic tray) burned up inside so we weren’t able to use it.  Someone finally came to “fix” it six days later when we sent in a request.  There were little inconveniences like the soap powder they sell at the front desk for laundry does NOT dissolve in warm water in their washing machines.  There were clumps of soap powder among the clothes even after rinsing and spinning.  Also the room was not ready when we arrived from the airport over two hours after standard check in time.  As with our previous experience, the front desk implies we can request cleaning on a specific schedule but the crew is almost always off by SEVERAL hours but we decided to adjust to them after several requests seemed...The residence inn never disappoints me overall.  This one was pretty good compared to other Residence Inns.   I stayed with my daughter and her one year old and four year old for ten days.  I kept the kids while she worked 10 hour days.  There were several indoor and outdoor play spaces to take the kids nearby.  The property was clean inside and out and the service was very good.  (Some are more elegant with nicer furniture)  Breakfast has plenty of choices for healthy or other foods.  The rooms are spacious and the kitchen has almost everything you need to take care of some of the other family meals.  The oven had something (looked like plastic tray) burned up inside so we weren’t able to use it.  Someone finally came to “fix” it six days later when we sent in a request.  There were little inconveniences like the soap powder they sell at the front desk for laundry does NOT dissolve in warm water in their washing machines.  There were clumps of soap powder among the clothes even after rinsing and spinning.  Also the room was not ready when we arrived from the airport over two hours after standard check in time.  As with our previous experience, the front desk implies we can request cleaning on a specific schedule but the crew is almost always off by SEVERAL hours but we decided to adjust to them after several requests seemed to go unheeded.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>The residence inn never disappoints me overall.  This one was pretty good compared to other Residence Inns.   I stayed with my daughter and her one year old and four year old for ten days.  I kept the kids while she worked 10 hour days.  There were several indoor and outdoor play spaces to take the kids nearby.  The property was clean inside and out and the service was very good.  (Some are more elegant with nicer furniture)  Breakfast has plenty of choices for healthy or other foods.  The rooms are spacious and the kitchen has almost everything you need to take care of some of the other family meals.  The oven had something (looked like plastic tray) burned up inside so we weren’t able to use it.  Someone finally came to “fix” it six days later when we sent in a request.  There were little inconveniences like the soap powder they sell at the front desk for laundry does NOT dissolve in warm water in their washing machines.  There were clumps of soap powder among the clothes even after rinsing and spinning.  Also the room was not ready when we arrived from the airport over two hours after standard check in time.  As with our previous experience, the front desk implies we can request cleaning on a specific schedule but the crew is almost always off by SEVERAL hours but we decided to adjust to them after several requests seemed...The residence inn never disappoints me overall.  This one was pretty good compared to other Residence Inns.   I stayed with my daughter and her one year old and four year old for ten days.  I kept the kids while she worked 10 hour days.  There were several indoor and outdoor play spaces to take the kids nearby.  The property was clean inside and out and the service was very good.  (Some are more elegant with nicer furniture)  Breakfast has plenty of choices for healthy or other foods.  The rooms are spacious and the kitchen has almost everything you need to take care of some of the other family meals.  The oven had something (looked like plastic tray) burned up inside so we weren’t able to use it.  Someone finally came to “fix” it six days later when we sent in a request.  There were little inconveniences like the soap powder they sell at the front desk for laundry does NOT dissolve in warm water in their washing machines.  There were clumps of soap powder among the clothes even after rinsing and spinning.  Also the room was not ready when we arrived from the airport over two hours after standard check in time.  As with our previous experience, the front desk implies we can request cleaning on a specific schedule but the crew is almost always off by SEVERAL hours but we decided to adjust to them after several requests seemed to go unheeded.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r249044307-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>249044307</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Nice property but Housekeeping was</t>
+  </si>
+  <si>
+    <t>Family of four (kids under 18) stayed at this property over the Christmas holidays for ten nights. The property was clean and well maintained. The only complaint was housekeeping. We repeated had to ask for extra towels and new shampoo and conditioner...daily! You'd think that they would replenish shampoo and conditioner, and replace the same number of towels that they took away. Seems like either housekeeping needed to be better trained or maybe they just didn't want to be there.The breakfast area was overwhelmed on several occasions. Staff was not able to keep up with food management and cleaning the area. Perhaps the hotel needs to better staff over the holidays. Other than that, everyone was friendly and the location is ideal. Although it is on a busy street, the rooms are set back far enough that traffic noise is not a concern.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Jayne W, Guest Relations Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded January 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2015</t>
+  </si>
+  <si>
+    <t>Family of four (kids under 18) stayed at this property over the Christmas holidays for ten nights. The property was clean and well maintained. The only complaint was housekeeping. We repeated had to ask for extra towels and new shampoo and conditioner...daily! You'd think that they would replenish shampoo and conditioner, and replace the same number of towels that they took away. Seems like either housekeeping needed to be better trained or maybe they just didn't want to be there.The breakfast area was overwhelmed on several occasions. Staff was not able to keep up with food management and cleaning the area. Perhaps the hotel needs to better staff over the holidays. Other than that, everyone was friendly and the location is ideal. Although it is on a busy street, the rooms are set back far enough that traffic noise is not a concern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r245033794-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>245033794</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>This was a surprisingly comfortable and clean hotel and a great price in a great area. Shopping around here is fantastic. Room was huge. Tv swiveled from the living room area to the bedroom area. Which was great. They will even go grocery shopping for you. Staff was very friendly. Parking very easy. Overall great stay and I will stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r238835198-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>238835198</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>I stay here when I come to get or see my daughter.  I like Marriott and I like Residence Inn.  This is a solid unpretentious hotel.  I get burned out staying in hotels and this is a solid substitute for home.  They are brilliant having the gym away from the sleeping quarters.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r230904350-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>230904350</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Great place, great price, great location</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel, and was warmly greeted and quickly given my room, although I showed up 4 hours before check-in time.  My room was clean, breakfast came with the stay, and the parking was adequate.  The location seemed safe, and it was very easy to access a lot of shopping and restaurants.  Not hard to find.  I was very pleased.My only issue, albeit small, was that a hot breakfast was advertised, and I personally feel that that includes some type of meat.  There was the traditional waffle machine, and a toaster, and hot scrambled eggs, but no meat.  For the price and niceness of the hotel, I'll do without a piece of sausage!  I highly recommend this location.  I didn't mention it, but they do have a pool too.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel, and was warmly greeted and quickly given my room, although I showed up 4 hours before check-in time.  My room was clean, breakfast came with the stay, and the parking was adequate.  The location seemed safe, and it was very easy to access a lot of shopping and restaurants.  Not hard to find.  I was very pleased.My only issue, albeit small, was that a hot breakfast was advertised, and I personally feel that that includes some type of meat.  There was the traditional waffle machine, and a toaster, and hot scrambled eggs, but no meat.  For the price and niceness of the hotel, I'll do without a piece of sausage!  I highly recommend this location.  I didn't mention it, but they do have a pool too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r227775655-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>227775655</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Overall, I thought it was a nice place</t>
+  </si>
+  <si>
+    <t>I stayed here for business the first week of September, 2014.  Overall, I thought it was a nice place.  The room was clean and quite large with a kitchen and a nice, large screen t.v.  It also had a very nice desk area.  The bathroom floor needed some work, but that was my only complaint for the room.  They have a very nice Happy Hour every day from 6 - 7:30 which had WAY more food than your typical Happy Hour.  The first one I attended was a huge taco bar and the second one was a salad bar, pasta with chicken, and even cookies!  Of course, they offer free beer and wine too.  Hence, several nights I simply made that my dinner and never left the hotel.  They also serve a full breakfast each morning with everything from eggs and Canadian bacon to waffles, cereal, muffins, and toast.  I did, on two occasions, make use of the pool which was small but clean (and empty).  They also had a hot tub, but the water temperature appeared the same as the pool and, with it being 90+ outside, I wasn't in the mood to sit in a hot tub.  The only problems I had while there were minor: 1) When I first checked in, they gave me the wrong room and I walked in on a family! LoL and 2) My room keys stopped working on my second day there...I stayed here for business the first week of September, 2014.  Overall, I thought it was a nice place.  The room was clean and quite large with a kitchen and a nice, large screen t.v.  It also had a very nice desk area.  The bathroom floor needed some work, but that was my only complaint for the room.  They have a very nice Happy Hour every day from 6 - 7:30 which had WAY more food than your typical Happy Hour.  The first one I attended was a huge taco bar and the second one was a salad bar, pasta with chicken, and even cookies!  Of course, they offer free beer and wine too.  Hence, several nights I simply made that my dinner and never left the hotel.  They also serve a full breakfast each morning with everything from eggs and Canadian bacon to waffles, cereal, muffins, and toast.  I did, on two occasions, make use of the pool which was small but clean (and empty).  They also had a hot tub, but the water temperature appeared the same as the pool and, with it being 90+ outside, I wasn't in the mood to sit in a hot tub.  The only problems I had while there were minor: 1) When I first checked in, they gave me the wrong room and I walked in on a family! LoL and 2) My room keys stopped working on my second day there and I had to get a new one at the front desk.  However, these were both VERY minor issues and, once again, I would recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for business the first week of September, 2014.  Overall, I thought it was a nice place.  The room was clean and quite large with a kitchen and a nice, large screen t.v.  It also had a very nice desk area.  The bathroom floor needed some work, but that was my only complaint for the room.  They have a very nice Happy Hour every day from 6 - 7:30 which had WAY more food than your typical Happy Hour.  The first one I attended was a huge taco bar and the second one was a salad bar, pasta with chicken, and even cookies!  Of course, they offer free beer and wine too.  Hence, several nights I simply made that my dinner and never left the hotel.  They also serve a full breakfast each morning with everything from eggs and Canadian bacon to waffles, cereal, muffins, and toast.  I did, on two occasions, make use of the pool which was small but clean (and empty).  They also had a hot tub, but the water temperature appeared the same as the pool and, with it being 90+ outside, I wasn't in the mood to sit in a hot tub.  The only problems I had while there were minor: 1) When I first checked in, they gave me the wrong room and I walked in on a family! LoL and 2) My room keys stopped working on my second day there...I stayed here for business the first week of September, 2014.  Overall, I thought it was a nice place.  The room was clean and quite large with a kitchen and a nice, large screen t.v.  It also had a very nice desk area.  The bathroom floor needed some work, but that was my only complaint for the room.  They have a very nice Happy Hour every day from 6 - 7:30 which had WAY more food than your typical Happy Hour.  The first one I attended was a huge taco bar and the second one was a salad bar, pasta with chicken, and even cookies!  Of course, they offer free beer and wine too.  Hence, several nights I simply made that my dinner and never left the hotel.  They also serve a full breakfast each morning with everything from eggs and Canadian bacon to waffles, cereal, muffins, and toast.  I did, on two occasions, make use of the pool which was small but clean (and empty).  They also had a hot tub, but the water temperature appeared the same as the pool and, with it being 90+ outside, I wasn't in the mood to sit in a hot tub.  The only problems I had while there were minor: 1) When I first checked in, they gave me the wrong room and I walked in on a family! LoL and 2) My room keys stopped working on my second day there and I had to get a new one at the front desk.  However, these were both VERY minor issues and, once again, I would recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r223614569-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>223614569</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Fresh and Clean</t>
+  </si>
+  <si>
+    <t>Great place for the price.   If you are in Plano this is right off main street within 3 miles of Shops at Legacy.   Rooms were clean and newly renovated.   Reception was very helpful and nice.Room was a great size and clean, clean, cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Jayne W, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded August 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2014</t>
+  </si>
+  <si>
+    <t>Great place for the price.   If you are in Plano this is right off main street within 3 miles of Shops at Legacy.   Rooms were clean and newly renovated.   Reception was very helpful and nice.Room was a great size and clean, clean, cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r220936501-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>220936501</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Like Home</t>
+  </si>
+  <si>
+    <t>We stayed during a family gathering over a long weekend. The location was close to both Central expressway and the Dallas tollroad. Also, near many restaurants and shopping centers. The staff was friendly and accommodating. Studio suite w queen bed was spacious w full kitchen. Felt like home away from home. They provided real food for breakfast (scrabbled egg. Sausage, waffles, potatoes, french toast, pancakes along w cereals, fresh fruit, yogurt, muffins, bagels, toast, juices, tea and coffee). We appreciated the large selection. We would definitely recommend and stay here again. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jayne W, Guest Relations Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded August 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2014</t>
+  </si>
+  <si>
+    <t>We stayed during a family gathering over a long weekend. The location was close to both Central expressway and the Dallas tollroad. Also, near many restaurants and shopping centers. The staff was friendly and accommodating. Studio suite w queen bed was spacious w full kitchen. Felt like home away from home. They provided real food for breakfast (scrabbled egg. Sausage, waffles, potatoes, french toast, pancakes along w cereals, fresh fruit, yogurt, muffins, bagels, toast, juices, tea and coffee). We appreciated the large selection. We would definitely recommend and stay here again. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r217607810-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>217607810</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Spacious and Nie place</t>
+  </si>
+  <si>
+    <t>I stayed @ this hotel for a couple of weeks in May-June, 2014. Rooms: Spacious and Well Appointed. The kitchen was well equipped with all you need- a Oven, utensils, dish washer, Microwave, refrigerator...The Study area was nice and so was the living area. Service: It was OK. Food: The breakfast was of the same kind. No variety. I grew tired by the end of my trip. :) In the evenings, Mon-Thu.. You get free Snacks and Beer.. Good fun it is.. :)I would recommend this place certainly to people who want to stay for a long and want a place that feels like home..</t>
+  </si>
+  <si>
+    <t>June 2014</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1557,2632 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>233</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>118</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>258</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s">
+        <v>268</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>269</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>271</v>
+      </c>
+      <c r="J33" t="s">
+        <v>272</v>
+      </c>
+      <c r="K33" t="s">
+        <v>273</v>
+      </c>
+      <c r="L33" t="s">
+        <v>274</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>275</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s">
+        <v>281</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>282</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
+        <v>292</v>
+      </c>
+      <c r="K36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>295</v>
+      </c>
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>296</v>
+      </c>
+      <c r="X36" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>299</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>300</v>
+      </c>
+      <c r="J37" t="s">
+        <v>301</v>
+      </c>
+      <c r="K37" t="s">
+        <v>302</v>
+      </c>
+      <c r="L37" t="s">
+        <v>303</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>295</v>
+      </c>
+      <c r="O37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>310</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>311</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>312</v>
+      </c>
+      <c r="J39" t="s">
+        <v>313</v>
+      </c>
+      <c r="K39" t="s">
+        <v>314</v>
+      </c>
+      <c r="L39" t="s">
+        <v>315</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>316</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>319</v>
+      </c>
+      <c r="J40" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s">
+        <v>321</v>
+      </c>
+      <c r="L40" t="s">
+        <v>322</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>316</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>324</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>325</v>
+      </c>
+      <c r="J41" t="s">
+        <v>326</v>
+      </c>
+      <c r="K41" t="s">
+        <v>327</v>
+      </c>
+      <c r="L41" t="s">
+        <v>328</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>329</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>330</v>
+      </c>
+      <c r="X41" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>334</v>
+      </c>
+      <c r="J42" t="s">
+        <v>335</v>
+      </c>
+      <c r="K42" t="s">
+        <v>336</v>
+      </c>
+      <c r="L42" t="s">
+        <v>337</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>338</v>
+      </c>
+      <c r="X42" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K43" t="s">
+        <v>344</v>
+      </c>
+      <c r="L43" t="s">
+        <v>345</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>346</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_659.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_659.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>L_Chigurupati</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Great experience to stay with this hotel. Friendly and cooperative front office staff and nice facility. This hotel provides free transport to the near by offices. The breakfast was good and evening light dinner was delicious.More</t>
   </si>
   <si>
+    <t>tbonuss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r527420953-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>I've stayed in hundreds and hundreds of hotels over the years--this hotel is just fantastic for business travel (and for family stays as well I would think).  The rooms are large, well appointed (king bed, very big desk space, couch and a small table for two in the kitchenette).  There is also a basketball court and an outdoor pool.  The "free" happy hour food is plenty for me after a long day working -- always featured a nice fruit / salad selection complimenting an entree (e.g., grilled sausage links, flatbread pizza's) and other odds and ends.Beyond all that, the people are really, really great.  Today I had the pleasant experience of being helped by  a professional young lady named Katie, who took a bad situation (my reservation was all messed up--not sure what happened) and she just fixed it with a smile.  What more could you ask for?  Bottom line, if I'm in the area and need lodging, this is my number one choice.  If you try it, I think you'll see what I mean.More</t>
   </si>
   <si>
+    <t>Mike W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r525909660-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>This Residence Inn was a surprisingly very good choice for a family celebration.  The front desk was absolutely outstanding, in every possible way.  We had a plumbing problem at 12:40 A.M. on a Sunday morning.  Nevertheless, this hotel had a repairman at our room in approximately 20 minutes.  He completely repaired this problem in about 5 minutes.Our room was clean, quiet, and comfortable.  The breakfast was good, as was the pool and whirlpool.    This hotel had the strongest water pressure/flow of any hotel at which I have ever stayed.  I could not complain about any part of my experience, even if I wanted to.More</t>
   </si>
   <si>
+    <t>Arnabce</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r493826076-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>DannyNM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r492894541-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t>We stayed for a few days and really can't say anything that bad about the place.It does not have much of a 'grounds' and is stuck between a bunch of apartments.The pool is small and the exercise room is really small.But the good things - rooms are spacious and clean.  Staff was amazing friendly and breakfast was really good.More</t>
   </si>
   <si>
+    <t>Scott N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r486390708-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -312,6 +330,9 @@
     <t>I stayed here because that is where Priceline sent me.  The hotel is very clean and the staff are polite and efficient.  My bed was comfortable, the shower was good, and the room itself was large and comfortable.  There is plenty of available parking around the perimeter of the hotel.  I did not have the breakfast, but it looked to be fairly basic.  The wi-fi service was good.  I was happy with my stay here and would visit again.More</t>
   </si>
   <si>
+    <t>EdmondOKBeachLover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r467940494-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -330,6 +351,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>slmnsam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r465837241-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>The overall hotel is fine, rooms were clean, but did notice some ants hanging out in the kitchen and let the desk know.  Not a big deal, but would prefer them to live elsewhere. The breakfast was average for this type of location and the size of the eating area is not very large.More</t>
   </si>
   <si>
+    <t>DougP-OKC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r463354307-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -384,6 +411,9 @@
     <t>I was happily surprised that all my experiences matched the happy reviews and I saw none of the things referred to in the negative reviews. It was a perfect place for my wife and I to spend a weekend night. Great front desk help, cheerful, efficient and helpful. The suite setup was great. Room was large, quiet and clean and for us the location was great. Lots of good restaurant choices close by.More</t>
   </si>
   <si>
+    <t>Haley P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r457661052-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
     <t>It as a delightful surprise to pull up to a hotel that had such a nice residential feel. The trees are beautiful in that area. I had a great stay even though it was only one night. The front desk was very friendly. Chris and his front desk team took great care of me. I really enjoyed breakfast, especially the chocolate croissant! My room was spacious and clean.Thanks for making my trip so nice!More</t>
   </si>
   <si>
+    <t>priyadeepc2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r455719792-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -429,6 +462,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Allen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r454867081-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -453,6 +489,9 @@
     <t>This place needs complete facelift.  Dirty, scuffed walls and plaster repair all over the place.  Musty, awful smell in many hallways, including entry near the lobby and breakfast area.  Finally, when I was leaving I saw two SUV's up on blocks- their wheels were stolen the night before- near the office! Yikes, is this Plano or Compton??More</t>
   </si>
   <si>
+    <t>Jed202</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r442541236-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -477,6 +516,9 @@
     <t>I saw housekeepers. I am not sure what they do. This hotel is beat up, which wouldn''t be so bad if it was clean. The common areas are worse than rooms, but that is not praise for the room conidtions by any means.RI's get a lot of wear and tear. This one is just excessive.The morning and evening food presentations are simply disgusting.More</t>
   </si>
   <si>
+    <t>TallSH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r439150739-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -504,6 +546,9 @@
     <t>i can't believe these reviews are so good. the rooms are dirty and not well cleaned - shower had left over soap scum from previous guests, very dusty and not well cleaned. there's dust and dirt everywhere... beds are mediocre. The daily cleaning was a lame - they should have skipped it... did not clean coffee pot, only made bed and replaced towels. hallways were gross. Breakfast was beyond lame... fruit was grapes and cantaloupe... and looked five days old it was so 'mushy'; eggs dry and rubbery, very small breakfast area.... not well lit... many of the women in my group commented on being concerned about their safety... definitely not my choice in the plano area.More</t>
   </si>
   <si>
+    <t>SudeepBatra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r438763785-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -528,6 +573,9 @@
     <t>Room is good,I was given a north facing room but later on when I asked for Sun facing room, they gave me that so happy about that. Front Desk is always helpful and Chris :).But Breakfast Food is deteriorating, the Chef is always irritable and impolite if anything asked. Sometimes they will have fewer option for Indians. The Tea water is always cold. If you are late you wont get some breakfast items.Bad experience with the Laundry, lot of Pet hairs - not sure if somebody put his Pet inside the Laundry to wash. Not sure how RI will control this but its a problem for the residents. Also there is no Paper Towel in Laundry to clean it if you want.More</t>
   </si>
   <si>
+    <t>PhilEBuster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r433516962-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -552,6 +600,9 @@
     <t>Crazy loud... very thin walls.  I'm painfully tired this morning.  I could hear neighbors... the people above and below me.  It's been a bad experience.If you are in any way a light sleeper then stay away.More</t>
   </si>
   <si>
+    <t>Kat H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r426689332-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -579,6 +630,9 @@
     <t>We thought this was a "pet friendly" hotel based on the Marriott website and booked the hotel for four days. Unfortunately, at the time of check in we were informed of a 100.00 "pet cleaning fee". If we had known at the time of booking the hotel, we would have picked another hotel. This is a warning. I spoke to the manager and he was very rude. We have always stayed at Marriott hotels and have never been treated this way. Our room was dirty in the bathroom. There were stains that looked like blood near the sink and the kitchen had a layer of dust.More</t>
   </si>
   <si>
+    <t>Amanda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r425442987-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -594,6 +648,9 @@
     <t>We stayed here last weekend and I must say I was beyond impressed! The hotel was clean, smelled great and the room was awesome! Had a bed and a pull out couch for the kids plus a full kitchen. The only thing I didn't like was the bathroom door didn't shut properly but that really was no big deal.  I got this hotel at a great rate and will definitely stay here again!</t>
   </si>
   <si>
+    <t>Martha O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r396996063-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -612,6 +669,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Patti W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r392264792-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -630,6 +690,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>kktk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r390240557-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -645,6 +708,9 @@
     <t xml:space="preserve">By far, this is the worst Marriott property I've ever stayed at.  Marriott should consider removing it's name from this particular property.  Hotel doesn't appear to own a vacuum at all...debris in elevator, hallways and stairway.  Paint all over glass near elevators, wallpaper peeling in bathroom, awful ring in toilet bowl, breakfast area dirty and laundry room a disaster.  Sofa sleeper unbearable to sleep on - huge lump in center made it so you had to sleep across top of mattress, which actually resulted in mattress folding up on me at midnight.  Furniture was stained.  The icing on the cake was the terrible smells all throughout the hotel. </t>
   </si>
   <si>
+    <t>dannyboytravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r351885466-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -663,6 +729,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Clint W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r350068514-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -684,6 +753,9 @@
     <t>My name is Dustin Walker and my wife is Lucielle Walker.  We spent 3 weeks at the Residence Inn in Plano, Texas on Whitestone Ln.  I cannot say enough good things about the staff there.  Michael Moreno is the Manager and he went so far above and beyond the normal call of duty, there is not enough room here to describe.  Just know this : If you are staying in Plano or Frisco, TX, and customer service is important to you, STAY HERE!  The rest of the staff, including Bobby and Edgar and Jay,  is wonderful as well.  Thank you so much to everyone at the Residence Inn Plano, TX.More</t>
   </si>
   <si>
+    <t>Joyce F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r342235198-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -702,6 +774,9 @@
     <t>By the time my new home is ready for occupancy, I will have been here for over two months. I hope everyone has a choice to stay here if even for a day, a month, or more. These employees are the happiest and most caring it's ever been my pleasure to know. From Michael, Chris, Mary at the front desk, to Edward who knows everything about my PC to keep it running, and Norma and her mother and Martha who keep my suite clean; I cannot say enough about their professionalism. Breakfast every morning, and three nights a week special treats in the restaurant helps you feel like you're in their living room. I even met another woman and became friends, and we will visit each other again. The suites are large, quiet, clean, and modern. If I have forgotten to mention the other people I've met here, please accept my apologizes because I wouldn't want to offend or omit my personal thanks to you as well.More</t>
   </si>
   <si>
+    <t>NIQUITA B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r341007853-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -720,6 +795,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Ben C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r329757801-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -738,6 +816,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>davelL582XF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r325130617-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -756,6 +837,9 @@
     <t>My wife and I have stayed at this particular Residence Inn on a number of occasions over about 10 years.  It was becoming a little long in the tooth and faced "in-family" competition from a much newer Residence in in The Colony nearby.  However a refresh has vaulted this hotel back to the top of our list when we are in this area.While the rooms remain the same size, by the use of lively color schemes and the replacement of counter tops in the bathroom and in the kitchen, we can really not say enough about how pleasant this place is.  In addition, an attractive modern work desk has been added complete with an electrical outlet strip for connecting and recharging your electronic gear.In summary, beautifully refurbished property at competitive prices.  Congratulations Marriott.More</t>
   </si>
   <si>
+    <t>Rod H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r319292850-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -777,6 +861,9 @@
     <t>had to visit Plano for work, and the Residence is near our location so I thought what the heck.  They have a pool, hot tub and a decent breakfast every morning. Monday- Weds they have drinks and snacks in for dinner/cocktail hour. The rooms need updating.  I came in from work to find my bathroom flooded. The maintenance guy said I could cut the water on and off as I needed or I could try to get a new room.  The staff gave me a room that was a suite, so I now had a much bigger room .  Overall its save, in a good location, but needs some work.More</t>
   </si>
   <si>
+    <t>lcschrei</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r318065975-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -795,6 +882,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>ANashTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r309999928-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -810,6 +900,9 @@
     <t>Scott, the front desk associate, was always helpful and empathetic during my entire stay.  He provided local places for me to eat (instead of chain restaurants that most other front desk attendants typically say).  And he was particularly kind when I was complaining about my rental car issues.  This hotel really knows how to train their employees to provide great customer service!</t>
   </si>
   <si>
+    <t>Mark N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r288010711-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -828,6 +921,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>sightseeker29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r283311612-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -849,6 +945,9 @@
     <t>I've stayed in this hotel several times, most recently, with my son for 10 days when his house  was struck by lightning and it took out the A/C in the heat of summer. First of all, the staff is super friendly! There's also a great buffet every morning and a happy/social hour Mon.- Wed. with free beer and wine and some sort of food. Hamburgers one night, waffles another, etc.  It's conveniently located to pretty much everything and the rooms are clean and quiet.I will say that the bedroom and the toilet room are a little on the cramped side, so if you're a large person, keep that in mind. They also have a pool and jacuzzi (the jets are not very powerful). Overall, I think it's a great value and when I return, I will definitely stay there again!More</t>
   </si>
   <si>
+    <t>L A D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r274837494-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -867,6 +966,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Ludwig L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r250978213-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -888,6 +990,9 @@
     <t>The residence inn never disappoints me overall.  This one was pretty good compared to other Residence Inns.   I stayed with my daughter and her one year old and four year old for ten days.  I kept the kids while she worked 10 hour days.  There were several indoor and outdoor play spaces to take the kids nearby.  The property was clean inside and out and the service was very good.  (Some are more elegant with nicer furniture)  Breakfast has plenty of choices for healthy or other foods.  The rooms are spacious and the kitchen has almost everything you need to take care of some of the other family meals.  The oven had something (looked like plastic tray) burned up inside so we weren’t able to use it.  Someone finally came to “fix” it six days later when we sent in a request.  There were little inconveniences like the soap powder they sell at the front desk for laundry does NOT dissolve in warm water in their washing machines.  There were clumps of soap powder among the clothes even after rinsing and spinning.  Also the room was not ready when we arrived from the airport over two hours after standard check in time.  As with our previous experience, the front desk implies we can request cleaning on a specific schedule but the crew is almost always off by SEVERAL hours but we decided to adjust to them after several requests seemed...The residence inn never disappoints me overall.  This one was pretty good compared to other Residence Inns.   I stayed with my daughter and her one year old and four year old for ten days.  I kept the kids while she worked 10 hour days.  There were several indoor and outdoor play spaces to take the kids nearby.  The property was clean inside and out and the service was very good.  (Some are more elegant with nicer furniture)  Breakfast has plenty of choices for healthy or other foods.  The rooms are spacious and the kitchen has almost everything you need to take care of some of the other family meals.  The oven had something (looked like plastic tray) burned up inside so we weren’t able to use it.  Someone finally came to “fix” it six days later when we sent in a request.  There were little inconveniences like the soap powder they sell at the front desk for laundry does NOT dissolve in warm water in their washing machines.  There were clumps of soap powder among the clothes even after rinsing and spinning.  Also the room was not ready when we arrived from the airport over two hours after standard check in time.  As with our previous experience, the front desk implies we can request cleaning on a specific schedule but the crew is almost always off by SEVERAL hours but we decided to adjust to them after several requests seemed to go unheeded.More</t>
   </si>
   <si>
+    <t>Calvynz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r249044307-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1020,9 @@
     <t>Family of four (kids under 18) stayed at this property over the Christmas holidays for ten nights. The property was clean and well maintained. The only complaint was housekeeping. We repeated had to ask for extra towels and new shampoo and conditioner...daily! You'd think that they would replenish shampoo and conditioner, and replace the same number of towels that they took away. Seems like either housekeeping needed to be better trained or maybe they just didn't want to be there.The breakfast area was overwhelmed on several occasions. Staff was not able to keep up with food management and cleaning the area. Perhaps the hotel needs to better staff over the holidays. Other than that, everyone was friendly and the location is ideal. Although it is on a busy street, the rooms are set back far enough that traffic noise is not a concern.More</t>
   </si>
   <si>
+    <t>Amanda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r245033794-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1038,9 @@
     <t>This was a surprisingly comfortable and clean hotel and a great price in a great area. Shopping around here is fantastic. Room was huge. Tv swiveled from the living room area to the bedroom area. Which was great. They will even go grocery shopping for you. Staff was very friendly. Parking very easy. Overall great stay and I will stay here again.</t>
   </si>
   <si>
+    <t>Kevin P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r238835198-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1062,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>ucmband</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r230904350-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1086,9 @@
     <t>I recently stayed at this hotel, and was warmly greeted and quickly given my room, although I showed up 4 hours before check-in time.  My room was clean, breakfast came with the stay, and the parking was adequate.  The location seemed safe, and it was very easy to access a lot of shopping and restaurants.  Not hard to find.  I was very pleased.My only issue, albeit small, was that a hot breakfast was advertised, and I personally feel that that includes some type of meat.  There was the traditional waffle machine, and a toaster, and hot scrambled eggs, but no meat.  For the price and niceness of the hotel, I'll do without a piece of sausage!  I highly recommend this location.  I didn't mention it, but they do have a pool too.More</t>
   </si>
   <si>
+    <t>Dlit99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r227775655-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1107,9 @@
     <t>I stayed here for business the first week of September, 2014.  Overall, I thought it was a nice place.  The room was clean and quite large with a kitchen and a nice, large screen t.v.  It also had a very nice desk area.  The bathroom floor needed some work, but that was my only complaint for the room.  They have a very nice Happy Hour every day from 6 - 7:30 which had WAY more food than your typical Happy Hour.  The first one I attended was a huge taco bar and the second one was a salad bar, pasta with chicken, and even cookies!  Of course, they offer free beer and wine too.  Hence, several nights I simply made that my dinner and never left the hotel.  They also serve a full breakfast each morning with everything from eggs and Canadian bacon to waffles, cereal, muffins, and toast.  I did, on two occasions, make use of the pool which was small but clean (and empty).  They also had a hot tub, but the water temperature appeared the same as the pool and, with it being 90+ outside, I wasn't in the mood to sit in a hot tub.  The only problems I had while there were minor: 1) When I first checked in, they gave me the wrong room and I walked in on a family! LoL and 2) My room keys stopped working on my second day there...I stayed here for business the first week of September, 2014.  Overall, I thought it was a nice place.  The room was clean and quite large with a kitchen and a nice, large screen t.v.  It also had a very nice desk area.  The bathroom floor needed some work, but that was my only complaint for the room.  They have a very nice Happy Hour every day from 6 - 7:30 which had WAY more food than your typical Happy Hour.  The first one I attended was a huge taco bar and the second one was a salad bar, pasta with chicken, and even cookies!  Of course, they offer free beer and wine too.  Hence, several nights I simply made that my dinner and never left the hotel.  They also serve a full breakfast each morning with everything from eggs and Canadian bacon to waffles, cereal, muffins, and toast.  I did, on two occasions, make use of the pool which was small but clean (and empty).  They also had a hot tub, but the water temperature appeared the same as the pool and, with it being 90+ outside, I wasn't in the mood to sit in a hot tub.  The only problems I had while there were minor: 1) When I first checked in, they gave me the wrong room and I walked in on a family! LoL and 2) My room keys stopped working on my second day there and I had to get a new one at the front desk.  However, these were both VERY minor issues and, once again, I would recommend this place.More</t>
   </si>
   <si>
+    <t>MartyMac8888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r223614569-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1137,9 @@
     <t>Great place for the price.   If you are in Plano this is right off main street within 3 miles of Shops at Legacy.   Rooms were clean and newly renovated.   Reception was very helpful and nice.Room was a great size and clean, clean, cleanMore</t>
   </si>
   <si>
+    <t>thomas d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r220936501-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -1039,6 +1162,9 @@
   </si>
   <si>
     <t>We stayed during a family gathering over a long weekend. The location was close to both Central expressway and the Dallas tollroad. Also, near many restaurants and shopping centers. The staff was friendly and accommodating. Studio suite w queen bed was spacious w full kitchen. Felt like home away from home. They provided real food for breakfast (scrabbled egg. Sausage, waffles, potatoes, french toast, pancakes along w cereals, fresh fruit, yogurt, muffins, bagels, toast, juices, tea and coffee). We appreciated the large selection. We would definitely recommend and stay here again. Thank you.More</t>
+  </si>
+  <si>
+    <t>Rajiv_Paul</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r217607810-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -1561,43 +1687,47 @@
       <c r="A2" t="n">
         <v>36424</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175816</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1615,56 +1745,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36424</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175817</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1682,50 +1816,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36424</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
-      </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1743,56 +1881,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36424</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175818</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1810,50 +1952,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36424</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175819</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1871,56 +2017,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36424</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>88582</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1938,56 +2088,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36424</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175820</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2005,50 +2159,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36424</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175821</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2066,56 +2224,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36424</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175822</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>117</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>109</v>
-      </c>
       <c r="O10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2133,56 +2295,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36424</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>106473</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2200,56 +2366,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36424</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175823</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2269,50 +2439,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36424</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>44517</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2324,56 +2498,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36424</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>175824</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2389,56 +2567,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36424</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>175825</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2456,56 +2638,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36424</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175826</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2523,56 +2709,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36424</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>175827</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2584,56 +2774,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36424</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>48942</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2649,56 +2843,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="X18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36424</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>3910</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2712,50 +2910,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36424</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>9338</v>
+      </c>
+      <c r="C20" t="s">
+        <v>210</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2769,50 +2971,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36424</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>39726</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2826,50 +3032,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36424</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175828</v>
+      </c>
+      <c r="C22" t="s">
+        <v>224</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2883,50 +3093,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36424</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175829</v>
+      </c>
+      <c r="C23" t="s">
+        <v>230</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="O23" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2944,50 +3158,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36424</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>175830</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3005,50 +3223,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36424</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>10148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>245</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3068,50 +3290,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36424</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>175831</v>
+      </c>
+      <c r="C26" t="s">
+        <v>252</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="J26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3125,50 +3351,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36424</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>18093</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="O27" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3188,50 +3418,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36424</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>175832</v>
+      </c>
+      <c r="C28" t="s">
+        <v>266</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3249,50 +3483,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36424</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>32803</v>
+      </c>
+      <c r="C29" t="s">
+        <v>273</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3310,50 +3548,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36424</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175833</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3371,50 +3613,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36424</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>175834</v>
+      </c>
+      <c r="C31" t="s">
+        <v>288</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3434,50 +3680,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36424</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>6644</v>
+      </c>
+      <c r="C32" t="s">
+        <v>294</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="J32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3491,50 +3741,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36424</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>175835</v>
+      </c>
+      <c r="C33" t="s">
+        <v>301</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="J33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3552,50 +3806,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36424</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>90954</v>
+      </c>
+      <c r="C34" t="s">
+        <v>309</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3615,50 +3873,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36424</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>175836</v>
+      </c>
+      <c r="C35" t="s">
+        <v>316</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="J35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="O35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -3678,50 +3940,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36424</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175837</v>
+      </c>
+      <c r="C36" t="s">
+        <v>324</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3737,56 +4003,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="X36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="Y36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36424</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>11315</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3806,50 +4076,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36424</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>575</v>
+      </c>
+      <c r="C38" t="s">
+        <v>340</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="J38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="O38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -3863,50 +4137,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36424</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>175838</v>
+      </c>
+      <c r="C39" t="s">
+        <v>348</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="J39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="K39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -3924,50 +4202,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36424</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>175839</v>
+      </c>
+      <c r="C40" t="s">
+        <v>356</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="J40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -3987,50 +4269,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36424</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>175840</v>
+      </c>
+      <c r="C41" t="s">
+        <v>363</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="J41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="K41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4046,47 +4332,51 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="X41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="Y41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36424</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>175841</v>
+      </c>
+      <c r="C42" t="s">
+        <v>373</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="J42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="K42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
@@ -4113,56 +4403,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="X42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="Y42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36424</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>175842</v>
+      </c>
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="K43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4180,7 +4474,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_659.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_659.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>L_Chigurupati</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r572239906-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>106476</t>
+  </si>
+  <si>
+    <t>572239906</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Nice place with very comfortable rooms</t>
+  </si>
+  <si>
+    <t>We stayed there for 11 days after a house fire and had a 2 br suite.  It was very comfortable and each br had its own bath.  There was a kitchen with stove, frig, microwave, coffee maker and toaster, furnished with dishes for 4 and a few pots and pans.  The common area had a sleeper sofa.  And each area had its own TV. Breakfast was served daily with eggs, sausages, waffles, fruit, yogurt, bagels, bread for toast, etc.  Monday thru Wednesday evenings, the hotel also served small snacks.  One day was chicken on a skewer, another was pizza from a local restaurant, with beer, wine and soft drinks.  Not enough for dinner, but a nice touch.  My only issue was with the number and choice of TV channels.  Front office staff very cooperative and friendly, especially the lady who was serving the food in the evenings.  Overall, a very nice (considering the circumstances) experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>We stayed there for 11 days after a house fire and had a 2 br suite.  It was very comfortable and each br had its own bath.  There was a kitchen with stove, frig, microwave, coffee maker and toaster, furnished with dishes for 4 and a few pots and pans.  The common area had a sleeper sofa.  And each area had its own TV. Breakfast was served daily with eggs, sausages, waffles, fruit, yogurt, bagels, bread for toast, etc.  Monday thru Wednesday evenings, the hotel also served small snacks.  One day was chicken on a skewer, another was pizza from a local restaurant, with beer, wine and soft drinks.  Not enough for dinner, but a nice touch.  My only issue was with the number and choice of TV channels.  Front office staff very cooperative and friendly, especially the lady who was serving the food in the evenings.  Overall, a very nice (considering the circumstances) experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r556322969-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>556322969</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Well appointed suites, serviced daily! What I've always liked about Residence Inn is their consistency. The suites are well appointed and contain everything you would need for a relaxed stay.The breakfast is quite standard and the bits in the evening are nice. The shuttle service is helpful too.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r549875405-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>106476</t>
-  </si>
-  <si>
     <t>549875405</t>
   </si>
   <si>
@@ -180,9 +228,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded December 30, 2017</t>
   </si>
   <si>
@@ -192,9 +237,6 @@
     <t>Great experience to stay with this hotel. Friendly and cooperative front office staff and nice facility. This hotel provides free transport to the near by offices. The breakfast was good and evening light dinner was delicious.More</t>
   </si>
   <si>
-    <t>tbonuss</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r527420953-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -216,9 +258,6 @@
     <t>I've stayed in hundreds and hundreds of hotels over the years--this hotel is just fantastic for business travel (and for family stays as well I would think).  The rooms are large, well appointed (king bed, very big desk space, couch and a small table for two in the kitchenette).  There is also a basketball court and an outdoor pool.  The "free" happy hour food is plenty for me after a long day working -- always featured a nice fruit / salad selection complimenting an entree (e.g., grilled sausage links, flatbread pizza's) and other odds and ends.Beyond all that, the people are really, really great.  Today I had the pleasant experience of being helped by  a professional young lady named Katie, who took a bad situation (my reservation was all messed up--not sure what happened) and she just fixed it with a smile.  What more could you ask for?  Bottom line, if I'm in the area and need lodging, this is my number one choice.  If you try it, I think you'll see what I mean.More</t>
   </si>
   <si>
-    <t>Mike W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r525909660-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -234,9 +273,6 @@
     <t>This Residence Inn was a surprisingly very good choice for a family celebration.  The front desk was absolutely outstanding, in every possible way.  We had a plumbing problem at 12:40 A.M. on a Sunday morning.  Nevertheless, this hotel had a repairman at our room in approximately 20 minutes.  He completely repaired this problem in about 5 minutes.Our room was clean, quiet, and comfortable.  The breakfast was good, as was the pool and whirlpool.    This hotel had the strongest water pressure/flow of any hotel at which I have ever stayed.  I could not complain about any part of my experience, even if I wanted to.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded September 21, 2017</t>
   </si>
   <si>
@@ -246,7 +282,46 @@
     <t>This Residence Inn was a surprisingly very good choice for a family celebration.  The front desk was absolutely outstanding, in every possible way.  We had a plumbing problem at 12:40 A.M. on a Sunday morning.  Nevertheless, this hotel had a repairman at our room in approximately 20 minutes.  He completely repaired this problem in about 5 minutes.Our room was clean, quiet, and comfortable.  The breakfast was good, as was the pool and whirlpool.    This hotel had the strongest water pressure/flow of any hotel at which I have ever stayed.  I could not complain about any part of my experience, even if I wanted to.More</t>
   </si>
   <si>
-    <t>Arnabce</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r523185509-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>523185509</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t>Without any hesitation, best hotel to stay in Dallas, we stayed here for more 3 nights. It has a basket ball court, enough space, lot of good stuff. Big suites very friendly staffs. Nice and memorable stay. Thanks</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r508146386-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>508146386</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Needs work</t>
+  </si>
+  <si>
+    <t>The staff was friendly &amp; nice. The grounds were well kept. Great location. The hideabed mattress pad was dirty. Living room blackout curtains were off the rail; promptly repaired when we requested. Closet doors were off the rails &amp; fixed right away. The floors in our room were never vacuumed during a 2 week stay, despite several requests. Hallways &amp; elevator floors badly needed shampoo &amp; vacuuming during our entire stay. Individual buildings have key card security access, yet were unlocked at all hours, despite us bringing it to their attention several times. We only require room cleaning every 3rd or 4th day, yet they missed twice, despite a card on the door &amp; a reminder to the front desk. The location is perfect for us in that our daughter &amp; new grandson live nearby, but for our next extended visit later this month, we'll stay in another Residence Inn in the area, but somewhat further away. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>The staff was friendly &amp; nice. The grounds were well kept. Great location. The hideabed mattress pad was dirty. Living room blackout curtains were off the rail; promptly repaired when we requested. Closet doors were off the rails &amp; fixed right away. The floors in our room were never vacuumed during a 2 week stay, despite several requests. Hallways &amp; elevator floors badly needed shampoo &amp; vacuuming during our entire stay. Individual buildings have key card security access, yet were unlocked at all hours, despite us bringing it to their attention several times. We only require room cleaning every 3rd or 4th day, yet they missed twice, despite a card on the door &amp; a reminder to the front desk. The location is perfect for us in that our daughter &amp; new grandson live nearby, but for our next extended visit later this month, we'll stay in another Residence Inn in the area, but somewhat further away. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r493826076-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -267,9 +342,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>DannyNM</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r492894541-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -297,9 +369,6 @@
     <t>We stayed for a few days and really can't say anything that bad about the place.It does not have much of a 'grounds' and is stuck between a bunch of apartments.The pool is small and the exercise room is really small.But the good things - rooms are spacious and clean.  Staff was amazing friendly and breakfast was really good.More</t>
   </si>
   <si>
-    <t>Scott N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r486390708-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -330,7 +399,58 @@
     <t>I stayed here because that is where Priceline sent me.  The hotel is very clean and the staff are polite and efficient.  My bed was comfortable, the shower was good, and the room itself was large and comfortable.  There is plenty of available parking around the perimeter of the hotel.  I did not have the breakfast, but it looked to be fairly basic.  The wi-fi service was good.  I was happy with my stay here and would visit again.More</t>
   </si>
   <si>
-    <t>EdmondOKBeachLover</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r486098811-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>486098811</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Great stop</t>
+  </si>
+  <si>
+    <t>We will ere on our way home from cruise and needed to take a break. This place is awesome! The pool was a little on the cold side other than that this place is perfect. Everything was really nice. The breakfast was even excellent. Hah a great break on the way home!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>We will ere on our way home from cruise and needed to take a break. This place is awesome! The pool was a little on the cold side other than that this place is perfect. Everything was really nice. The breakfast was even excellent. Hah a great break on the way home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r472424989-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>472424989</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Wish I could have stayed longer!</t>
+  </si>
+  <si>
+    <t>What a lovely property!  I was in town on business for just one night, but everyone I encountered was extremely helpful and professional.  They let me ship a package I needed to the venue before I got there, and since it was heavy, even helped me take it to my room!  Plus there is an awesome shuttle that can take you anywhere within a 5 mile radius during the day, so I didn't need to rent a car while in town, and they even had a nice little snack bar off the main lobby.  The suites have everything you need and then some.  The courtyards are gorgeous and have basketball courts and all kinds of fun things you can do outside.  Again-- wishing I was staying longer and was on vacation!  I'll have to stay at one of these whenever I'm on vacation in the future!  Special thanks to Christopher, Tracy, and Dana (?) for all your extra help!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded April 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2017</t>
+  </si>
+  <si>
+    <t>What a lovely property!  I was in town on business for just one night, but everyone I encountered was extremely helpful and professional.  They let me ship a package I needed to the venue before I got there, and since it was heavy, even helped me take it to my room!  Plus there is an awesome shuttle that can take you anywhere within a 5 mile radius during the day, so I didn't need to rent a car while in town, and they even had a nice little snack bar off the main lobby.  The suites have everything you need and then some.  The courtyards are gorgeous and have basketball courts and all kinds of fun things you can do outside.  Again-- wishing I was staying longer and was on vacation!  I'll have to stay at one of these whenever I'm on vacation in the future!  Special thanks to Christopher, Tracy, and Dana (?) for all your extra help!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r467940494-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -348,12 +468,6 @@
     <t>This was a very well kept and clean Marriott property in Plano.  It is centrally located on N Preston Avenue and close to shops at Legacy and all other great places in Plano.  The hotel was clean and the staff was very friendly.  One of the better Residence inn's I have stayed in.  Recommend it if you need a apartment like hotel or extended stay in Plano.</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
-    <t>slmnsam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r465837241-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -381,9 +495,6 @@
     <t>The overall hotel is fine, rooms were clean, but did notice some ants hanging out in the kitchen and let the desk know.  Not a big deal, but would prefer them to live elsewhere. The breakfast was average for this type of location and the size of the eating area is not very large.More</t>
   </si>
   <si>
-    <t>DougP-OKC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r463354307-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -399,9 +510,6 @@
     <t>I was happily surprised that all my experiences matched the happy reviews and I saw none of the things referred to in the negative reviews. It was a perfect place for my wife and I to spend a weekend night. Great front desk help, cheerful, efficient and helpful. The suite setup was great. Room was large, quiet and clean and for us the location was great. Lots of good restaurant choices close by.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded February 28, 2017</t>
   </si>
   <si>
@@ -411,7 +519,46 @@
     <t>I was happily surprised that all my experiences matched the happy reviews and I saw none of the things referred to in the negative reviews. It was a perfect place for my wife and I to spend a weekend night. Great front desk help, cheerful, efficient and helpful. The suite setup was great. Room was large, quiet and clean and for us the location was great. Lots of good restaurant choices close by.More</t>
   </si>
   <si>
-    <t>Haley P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r462955974-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>462955974</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Recommend highly</t>
+  </si>
+  <si>
+    <t>This was the second stay here for a weekend of visiting the kids and grandkids in Plano.  Freshly redone room with great breakfast. Staff very courteous and accommodating. Bed was comfortable- would prefer it to be king instead of queen, but the suite is great for room and feeling like home. MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the second stay here for a weekend of visiting the kids and grandkids in Plano.  Freshly redone room with great breakfast. Staff very courteous and accommodating. Bed was comfortable- would prefer it to be king instead of queen, but the suite is great for room and feeling like home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r458205704-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>458205704</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>No thanks. Ugh</t>
+  </si>
+  <si>
+    <t>Let me say the staff was very nice. Other than that yuck. The rooms are tired and gross. Housekeeping never stopped and frankly it didn't matter. Bed is bad and the overall feel is tired and run down. Didn't feel clean and would not go back. Free drinks don't make up for a bad hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Let me say the staff was very nice. Other than that yuck. The rooms are tired and gross. Housekeeping never stopped and frankly it didn't matter. Bed is bad and the overall feel is tired and run down. Didn't feel clean and would not go back. Free drinks don't make up for a bad hotel. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r457661052-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -441,9 +588,6 @@
     <t>It as a delightful surprise to pull up to a hotel that had such a nice residential feel. The trees are beautiful in that area. I had a great stay even though it was only one night. The front desk was very friendly. Chris and his front desk team took great care of me. I really enjoyed breakfast, especially the chocolate croissant! My room was spacious and clean.Thanks for making my trip so nice!More</t>
   </si>
   <si>
-    <t>priyadeepc2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r455719792-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -462,9 +606,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>Allen B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r454867081-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -489,7 +630,46 @@
     <t>This place needs complete facelift.  Dirty, scuffed walls and plaster repair all over the place.  Musty, awful smell in many hallways, including entry near the lobby and breakfast area.  Finally, when I was leaving I saw two SUV's up on blocks- their wheels were stolen the night before- near the office! Yikes, is this Plano or Compton??More</t>
   </si>
   <si>
-    <t>Jed202</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r452249347-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>452249347</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Quiet hotel with extra space near Frisco.</t>
+  </si>
+  <si>
+    <t>Nice property.  Very good staff.  Check in was very easy.  Front desk staff were very friendly throughout our stay.The room was the standard Residence Inn room. It is not brand new, but it was comfortable.  We used the pull-out in the living room since there were three of us in the room.  The hotel was gracious in sending up our requested extra blankets.Breakfast in the morning was well-stocked and included some interesting items that we haven't seen at other Residence Inn properties, like chocolate croissants.There is convenient parking near the many entrances.The major roadways are all close by.  The shops and restaurants/bars at Legacy are a 5 minute drive.  We felt very secure in the neighborhood.This isn't a luxury property, and the bathrooms aren't new, but we used it as a home base for a National Championship football game in Frisco.  We were pleased with the property for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice property.  Very good staff.  Check in was very easy.  Front desk staff were very friendly throughout our stay.The room was the standard Residence Inn room. It is not brand new, but it was comfortable.  We used the pull-out in the living room since there were three of us in the room.  The hotel was gracious in sending up our requested extra blankets.Breakfast in the morning was well-stocked and included some interesting items that we haven't seen at other Residence Inn properties, like chocolate croissants.There is convenient parking near the many entrances.The major roadways are all close by.  The shops and restaurants/bars at Legacy are a 5 minute drive.  We felt very secure in the neighborhood.This isn't a luxury property, and the bathrooms aren't new, but we used it as a home base for a National Championship football game in Frisco.  We were pleased with the property for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r451092596-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>451092596</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Average Hotel</t>
+  </si>
+  <si>
+    <t>Positives:- Centrally Located, close to plenty of restaurants- Plenty of outside space- Good breakfast area- Friendly Staff - Free Shuttle service Negatives :- Small rooms and beds                - Old Building-MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Positives:- Centrally Located, close to plenty of restaurants- Plenty of outside space- Good breakfast area- Friendly Staff - Free Shuttle service Negatives :- Small rooms and beds                - Old Building-More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r442541236-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -516,9 +696,6 @@
     <t>I saw housekeepers. I am not sure what they do. This hotel is beat up, which wouldn''t be so bad if it was clean. The common areas are worse than rooms, but that is not praise for the room conidtions by any means.RI's get a lot of wear and tear. This one is just excessive.The morning and evening food presentations are simply disgusting.More</t>
   </si>
   <si>
-    <t>TallSH</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r439150739-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -546,9 +723,6 @@
     <t>i can't believe these reviews are so good. the rooms are dirty and not well cleaned - shower had left over soap scum from previous guests, very dusty and not well cleaned. there's dust and dirt everywhere... beds are mediocre. The daily cleaning was a lame - they should have skipped it... did not clean coffee pot, only made bed and replaced towels. hallways were gross. Breakfast was beyond lame... fruit was grapes and cantaloupe... and looked five days old it was so 'mushy'; eggs dry and rubbery, very small breakfast area.... not well lit... many of the women in my group commented on being concerned about their safety... definitely not my choice in the plano area.More</t>
   </si>
   <si>
-    <t>SudeepBatra</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r438763785-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -573,7 +747,55 @@
     <t>Room is good,I was given a north facing room but later on when I asked for Sun facing room, they gave me that so happy about that. Front Desk is always helpful and Chris :).But Breakfast Food is deteriorating, the Chef is always irritable and impolite if anything asked. Sometimes they will have fewer option for Indians. The Tea water is always cold. If you are late you wont get some breakfast items.Bad experience with the Laundry, lot of Pet hairs - not sure if somebody put his Pet inside the Laundry to wash. Not sure how RI will control this but its a problem for the residents. Also there is no Paper Towel in Laundry to clean it if you want.More</t>
   </si>
   <si>
-    <t>PhilEBuster</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r434930937-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>434930937</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>I'd stay here again</t>
+  </si>
+  <si>
+    <t>I'm Lifetime Platinum so I've stayed in a RI many times. If I have a problem I have no issues with putting it in my review but I didn't have any.  Check in was easy and friendly.  My room was quiet, very clean and everything worked. Speedtest came in at 14mbs on the premium service and I never had a slowdown. I always felt safe in the parking lot and there were many places nearby to eat. Breakfast was good and I have nothing to complain about. It was just a solid uneventful stay and that's great. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded November 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2016</t>
+  </si>
+  <si>
+    <t>I'm Lifetime Platinum so I've stayed in a RI many times. If I have a problem I have no issues with putting it in my review but I didn't have any.  Check in was easy and friendly.  My room was quiet, very clean and everything worked. Speedtest came in at 14mbs on the premium service and I never had a slowdown. I always felt safe in the parking lot and there were many places nearby to eat. Breakfast was good and I have nothing to complain about. It was just a solid uneventful stay and that's great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r433679600-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>433679600</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Friendly , courteous and prompt staff</t>
+  </si>
+  <si>
+    <t>I love to have fresh or washed lenins , it just makes me comfortable to smell and feel that the bed is clean not just made clean. The pull over sofa needed clean lenins, and the staff immediately send them over to the suite! The breakfast was great, but they could do a bit more options or alternating instead of scrambled eggs every day, may be alternate it with sunnyside up or cheese omlets single serve ones.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>I love to have fresh or washed lenins , it just makes me comfortable to smell and feel that the bed is clean not just made clean. The pull over sofa needed clean lenins, and the staff immediately send them over to the suite! The breakfast was great, but they could do a bit more options or alternating instead of scrambled eggs every day, may be alternate it with sunnyside up or cheese omlets single serve ones.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r433516962-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -582,27 +804,15 @@
     <t>433516962</t>
   </si>
   <si>
-    <t>11/01/2016</t>
-  </si>
-  <si>
     <t>Ugh</t>
   </si>
   <si>
     <t>Crazy loud... very thin walls.  I'm painfully tired this morning.  I could hear neighbors... the people above and below me.  It's been a bad experience.If you are in any way a light sleeper then stay away.MoreShow less</t>
   </si>
   <si>
-    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded November 3, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 3, 2016</t>
-  </si>
-  <si>
     <t>Crazy loud... very thin walls.  I'm painfully tired this morning.  I could hear neighbors... the people above and below me.  It's been a bad experience.If you are in any way a light sleeper then stay away.More</t>
   </si>
   <si>
-    <t>Kat H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r426689332-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -618,9 +828,6 @@
     <t>We thought this was a "pet friendly" hotel based on the Marriott website and booked the hotel for four days. Unfortunately, at the time of check in we were informed of a 100.00 "pet cleaning fee". If we had known at the time of booking the hotel, we would have picked another hotel. This is a warning. I spoke to the manager and he was very rude. We have always stayed at Marriott hotels and have never been treated this way. Our room was dirty in the bathroom. There were stains that looked like blood near the sink and the kitchen had a layer of dust.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded October 12, 2016</t>
   </si>
   <si>
@@ -630,9 +837,6 @@
     <t>We thought this was a "pet friendly" hotel based on the Marriott website and booked the hotel for four days. Unfortunately, at the time of check in we were informed of a 100.00 "pet cleaning fee". If we had known at the time of booking the hotel, we would have picked another hotel. This is a warning. I spoke to the manager and he was very rude. We have always stayed at Marriott hotels and have never been treated this way. Our room was dirty in the bathroom. There were stains that looked like blood near the sink and the kitchen had a layer of dust.More</t>
   </si>
   <si>
-    <t>Amanda M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r425442987-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -648,7 +852,46 @@
     <t>We stayed here last weekend and I must say I was beyond impressed! The hotel was clean, smelled great and the room was awesome! Had a bed and a pull out couch for the kids plus a full kitchen. The only thing I didn't like was the bathroom door didn't shut properly but that really was no big deal.  I got this hotel at a great rate and will definitely stay here again!</t>
   </si>
   <si>
-    <t>Martha O</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r422405820-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>422405820</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Unpleasant Service Experience at Residence inn, Plano by Marriott!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I stayed at Residence Inn during my Plano Tx visit from 10th Aug-20th Aug. Since I am a Pure Vegetarian who doesnt even take egg, i had taken Room with Kitchen. My flight from Canada was late so reached Tx late in the night and thought of cooking Meggi but when I open the kitchen rack, all the utensils were dirty and to that two spider came out of them. I complaint about this but was of no use as next evening when i came back from office Utensils were as is. Then there was AC problem. I had complained almost 4-5 times, but no use. I also wrote to the following. Every one assured the services but of nothing changed -Customer.care@marriott.com, online.account@marriot-service.com, Nell.Williams@marriott.com, Arne.Sorenson@marriott.com  Anyways since I was there for 10 days, somehow I managed.Over all It was not a good experience. I didn't find it a Marriott hotel at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at Residence Inn during my Plano Tx visit from 10th Aug-20th Aug. Since I am a Pure Vegetarian who doesnt even take egg, i had taken Room with Kitchen. My flight from Canada was late so reached Tx late in the night and thought of cooking Meggi but when I open the kitchen rack, all the utensils were dirty and to that two spider came out of them. I complaint about this but was of no use as next evening when i came back from office Utensils were as is. Then there was AC problem. I had complained almost 4-5 times, but no use. I also wrote to the following. Every one assured the services but of nothing changed -Customer.care@marriott.com, online.account@marriot-service.com, Nell.Williams@marriott.com, Arne.Sorenson@marriott.com  Anyways since I was there for 10 days, somehow I managed.Over all It was not a good experience. I didn't find it a Marriott hotel at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r417291419-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>417291419</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home away from home </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow! We were just blown away with this place! The rooms were wonderful complete with a bed, sectional, pull out bed, kitchen, and full sized desk. The breakfast was spot on! I especially liked the waffles were divided into 4 small waffles for easier eating. The only negative was a slight discomfort in the mattress but that could be personal preference. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r396996063-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -669,9 +912,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Patti W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r392264792-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -690,9 +930,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>kktk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r390240557-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -708,7 +945,37 @@
     <t xml:space="preserve">By far, this is the worst Marriott property I've ever stayed at.  Marriott should consider removing it's name from this particular property.  Hotel doesn't appear to own a vacuum at all...debris in elevator, hallways and stairway.  Paint all over glass near elevators, wallpaper peeling in bathroom, awful ring in toilet bowl, breakfast area dirty and laundry room a disaster.  Sofa sleeper unbearable to sleep on - huge lump in center made it so you had to sleep across top of mattress, which actually resulted in mattress folding up on me at midnight.  Furniture was stained.  The icing on the cake was the terrible smells all throughout the hotel. </t>
   </si>
   <si>
-    <t>dannyboytravels</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r371303070-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>371303070</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel but be warned about Plano traffic!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We arrived around rush hour and traffic was a nightmare getting to this place. I realize this is not the hotel's fault but it might affect my choice to come back.  Otherwise we really enjoy this place. The rooms are kept up very well and I appreciate having a full kitchen.  Staff is very friendly and attentive and the breakfast is great. There are some nice restaurants pretty close by but would not walk due to crazy traffic. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r357132099-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>357132099</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Very enjoyable spring break stop</t>
+  </si>
+  <si>
+    <t>The property for this Residence Inn is pretty and pleasant. It was cold, but the pool looked very nice. The room was very clean and pleasant and the man at the front counter was exceptionally professional. The breakfast offerings were broad and tasty. This hotel is near Ikea, Rough Riders stadium and a very nice mall. It is very well located for many other activities. For the price, Residence Inn has so much to offer, such as a kitchen and a living room area. It is my number one hotel pick when traveling, and this location is excellent.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r351885466-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -729,9 +996,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Clint W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r350068514-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -753,9 +1017,6 @@
     <t>My name is Dustin Walker and my wife is Lucielle Walker.  We spent 3 weeks at the Residence Inn in Plano, Texas on Whitestone Ln.  I cannot say enough good things about the staff there.  Michael Moreno is the Manager and he went so far above and beyond the normal call of duty, there is not enough room here to describe.  Just know this : If you are staying in Plano or Frisco, TX, and customer service is important to you, STAY HERE!  The rest of the staff, including Bobby and Edgar and Jay,  is wonderful as well.  Thank you so much to everyone at the Residence Inn Plano, TX.More</t>
   </si>
   <si>
-    <t>Joyce F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r342235198-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -774,7 +1035,37 @@
     <t>By the time my new home is ready for occupancy, I will have been here for over two months. I hope everyone has a choice to stay here if even for a day, a month, or more. These employees are the happiest and most caring it's ever been my pleasure to know. From Michael, Chris, Mary at the front desk, to Edward who knows everything about my PC to keep it running, and Norma and her mother and Martha who keep my suite clean; I cannot say enough about their professionalism. Breakfast every morning, and three nights a week special treats in the restaurant helps you feel like you're in their living room. I even met another woman and became friends, and we will visit each other again. The suites are large, quiet, clean, and modern. If I have forgotten to mention the other people I've met here, please accept my apologizes because I wouldn't want to offend or omit my personal thanks to you as well.More</t>
   </si>
   <si>
-    <t>NIQUITA B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r342156888-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>342156888</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>I was very pleased with the room. The staff was very helpful, and the breakfast was great. I would have to say the price was right for what I got! Good to know I got what I paid for. Great job Residence Inn- Dallas Plano</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r342003945-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>342003945</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Stay!</t>
+  </si>
+  <si>
+    <t>I stayed at this Marriott for six weeks to recuperate from surgery and visit family in the Plano area. I can't say enough good things about the employees here and the clean, comfortable rooms. It was indeed a "home away fro home." I will definitely be coming back.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r341007853-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -792,12 +1083,6 @@
     <t xml:space="preserve">The rooms were great and clean nice but bit upto date like some residence inns I have stayed in. We went as a family and bad to say they over charged all our cards. The people there were so rude we was rushed out of breakfast even told to keep quite by a staff member while eating breakfast. They had rude attitudes when asked for extra towels etc. Sometimes they never even came I have been a Marriott rewards member for almost 7 years now really thinking about switching to holiday inn. I will not stay here again!!  Nice hotel rude staff!! </t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
-    <t>Ben C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r329757801-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -813,12 +1098,6 @@
     <t>I was very pleased with the hotel.  The room was very comfortable, clean and quiet...and a great value. While we stayed only one night I think it would be very nice for a longer stay.  Even the studio we stayed in was roomy with a spacious living/work area, kitchen area with full-size refrigerator, cook top, microwave, pots and pans...even a dishwasher. I was really more like a small, comfortable apartment.  The staff was excellent...courteous and professional while offering the usual hotel service but also services including grocery shopping for you if needed!  No complaints at all, I'll stay here again.</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
-    <t>davelL582XF</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r325130617-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -837,7 +1116,37 @@
     <t>My wife and I have stayed at this particular Residence Inn on a number of occasions over about 10 years.  It was becoming a little long in the tooth and faced "in-family" competition from a much newer Residence in in The Colony nearby.  However a refresh has vaulted this hotel back to the top of our list when we are in this area.While the rooms remain the same size, by the use of lively color schemes and the replacement of counter tops in the bathroom and in the kitchen, we can really not say enough about how pleasant this place is.  In addition, an attractive modern work desk has been added complete with an electrical outlet strip for connecting and recharging your electronic gear.In summary, beautifully refurbished property at competitive prices.  Congratulations Marriott.More</t>
   </si>
   <si>
-    <t>Rod H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r324530056-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>324530056</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Great Value, Great Property</t>
+  </si>
+  <si>
+    <t>This property wqas recently renovated and was a very comfortable stay, and great value.  Really clean, new, friendly.  Bed was really comfortable, huge TV, really big work desk with multiple outlets, free wifi, comp breakfast.  I find Residence Inns to be hit or moss and the misses are really bad.  Was hesitant to stay her but for $160 a night, couldnt beat the overall value.  As a solo road warrior, I dont need the lobby or restaurant / bar.  This is where i will be staying on my Plano trips.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r324472439-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>324472439</t>
+  </si>
+  <si>
+    <t>Great service from Edward!</t>
+  </si>
+  <si>
+    <t>The room, breakfast, and hospitality were all incredible! Although I would like to shout out for Edward, the night time maintenance guy. Before I arrived to the hotel, my car window fell off its track and was stuck inside the door. I needed to get the window out and tape it for the ride back. Rather than letting me borrow some tools, Edward stayed outside with me around 10 o'clock at night for at least 40 minutes and helped me figure out how to take my door apart. This was completely outside of his job description and I appreciated his help and kindness!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r319292850-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -855,15 +1164,9 @@
     <t>had to visit Plano for work, and the Residence is near our location so I thought what the heck.  They have a pool, hot tub and a decent breakfast every morning. Monday- Weds they have drinks and snacks in for dinner/cocktail hour. The rooms need updating.  I came in from work to find my bathroom flooded. The maintenance guy said I could cut the water on and off as I needed or I could try to get a new room.  The staff gave me a room that was a suite, so I now had a much bigger room .  Overall its save, in a good location, but needs some work.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>had to visit Plano for work, and the Residence is near our location so I thought what the heck.  They have a pool, hot tub and a decent breakfast every morning. Monday- Weds they have drinks and snacks in for dinner/cocktail hour. The rooms need updating.  I came in from work to find my bathroom flooded. The maintenance guy said I could cut the water on and off as I needed or I could try to get a new room.  The staff gave me a room that was a suite, so I now had a much bigger room .  Overall its save, in a good location, but needs some work.More</t>
   </si>
   <si>
-    <t>lcschrei</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r318065975-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -882,9 +1185,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>ANashTraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r309999928-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -900,7 +1200,40 @@
     <t>Scott, the front desk associate, was always helpful and empathetic during my entire stay.  He provided local places for me to eat (instead of chain restaurants that most other front desk attendants typically say).  And he was particularly kind when I was complaining about my rental car issues.  This hotel really knows how to train their employees to provide great customer service!</t>
   </si>
   <si>
-    <t>Mark N</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r304090689-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>304090689</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Soccer Hotel!</t>
+  </si>
+  <si>
+    <t>Our second stay at this hotel and again it did not disappoint!  Great staff!  Our only disappointment was the television channels, we couldn't watch the Texas Rangers baseball game because they didn't offer Fox Sports SW.   Other than that, we will stay here again!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r289686653-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>289686653</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Convenient Locan but....</t>
+  </si>
+  <si>
+    <t>The location is at very convenient location to access business and shopping destinations in Dallas/Fortworth metro if with a car.However, the property is a little old and hotel rates seem a little expensive considering the quality of the property.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r288010711-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -918,12 +1251,6 @@
     <t>Stayed here in the residence inn for 10days. It's a good standard and better in my view than that Marriott courtyard, as I've stayed there for 5 days too in the last month. Rooms are spacious with kitchen which makes things very convenient compared to the normal hotel rooms</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
-    <t>sightseeker29</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r283311612-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -945,9 +1272,6 @@
     <t>I've stayed in this hotel several times, most recently, with my son for 10 days when his house  was struck by lightning and it took out the A/C in the heat of summer. First of all, the staff is super friendly! There's also a great buffet every morning and a happy/social hour Mon.- Wed. with free beer and wine and some sort of food. Hamburgers one night, waffles another, etc.  It's conveniently located to pretty much everything and the rooms are clean and quiet.I will say that the bedroom and the toilet room are a little on the cramped side, so if you're a large person, keep that in mind. They also have a pool and jacuzzi (the jets are not very powerful). Overall, I think it's a great value and when I return, I will definitely stay there again!More</t>
   </si>
   <si>
-    <t>L A D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r274837494-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -966,7 +1290,40 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>Ludwig L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r271865673-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>271865673</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Great welcome from all employees!</t>
+  </si>
+  <si>
+    <t>After battling traffic and rain it was such an unexpected upbeat welcome when we checked in.  Supervisor Thyme set the stage for other employees by being friendly and helpful and making guests feel appreciated.  Thyme explained the nightly get together in detail and encouraged us to join in for grilled hamburgers and all the side dishes.  Because the weather was nasty we decided to stay at hotel instead of going out on roads again.  Hamburgers were delicious and they also had veggie burgers for those who preferred no meat.  It was a nice buffet (and, of course, complimentary).Scott saved the day for me when I discovered I did not bring my phone charger.  He searched through chargers at desk and found one that worked with my phone and loaned it to me overnight.  Just great service overall.  They really care about their guests.  It was our second stay and we will certainly stay there again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>After battling traffic and rain it was such an unexpected upbeat welcome when we checked in.  Supervisor Thyme set the stage for other employees by being friendly and helpful and making guests feel appreciated.  Thyme explained the nightly get together in detail and encouraged us to join in for grilled hamburgers and all the side dishes.  Because the weather was nasty we decided to stay at hotel instead of going out on roads again.  Hamburgers were delicious and they also had veggie burgers for those who preferred no meat.  It was a nice buffet (and, of course, complimentary).Scott saved the day for me when I discovered I did not bring my phone charger.  He searched through chargers at desk and found one that worked with my phone and loaned it to me overnight.  Just great service overall.  They really care about their guests.  It was our second stay and we will certainly stay there again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r265955529-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>265955529</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Good consistent service...can count on Residence Inns.</t>
+  </si>
+  <si>
+    <t>We were just in town one night and wanted to meet friends in the area and this hotel is located near a lot of good places to eat and shop, so it was perfect for us.  Because we have Marriott Rewards membership they upgraded us to a suite for no extra charge which was nice. Marriott is pretty nice to its members in my experience.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r250978213-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -990,9 +1347,6 @@
     <t>The residence inn never disappoints me overall.  This one was pretty good compared to other Residence Inns.   I stayed with my daughter and her one year old and four year old for ten days.  I kept the kids while she worked 10 hour days.  There were several indoor and outdoor play spaces to take the kids nearby.  The property was clean inside and out and the service was very good.  (Some are more elegant with nicer furniture)  Breakfast has plenty of choices for healthy or other foods.  The rooms are spacious and the kitchen has almost everything you need to take care of some of the other family meals.  The oven had something (looked like plastic tray) burned up inside so we weren’t able to use it.  Someone finally came to “fix” it six days later when we sent in a request.  There were little inconveniences like the soap powder they sell at the front desk for laundry does NOT dissolve in warm water in their washing machines.  There were clumps of soap powder among the clothes even after rinsing and spinning.  Also the room was not ready when we arrived from the airport over two hours after standard check in time.  As with our previous experience, the front desk implies we can request cleaning on a specific schedule but the crew is almost always off by SEVERAL hours but we decided to adjust to them after several requests seemed...The residence inn never disappoints me overall.  This one was pretty good compared to other Residence Inns.   I stayed with my daughter and her one year old and four year old for ten days.  I kept the kids while she worked 10 hour days.  There were several indoor and outdoor play spaces to take the kids nearby.  The property was clean inside and out and the service was very good.  (Some are more elegant with nicer furniture)  Breakfast has plenty of choices for healthy or other foods.  The rooms are spacious and the kitchen has almost everything you need to take care of some of the other family meals.  The oven had something (looked like plastic tray) burned up inside so we weren’t able to use it.  Someone finally came to “fix” it six days later when we sent in a request.  There were little inconveniences like the soap powder they sell at the front desk for laundry does NOT dissolve in warm water in their washing machines.  There were clumps of soap powder among the clothes even after rinsing and spinning.  Also the room was not ready when we arrived from the airport over two hours after standard check in time.  As with our previous experience, the front desk implies we can request cleaning on a specific schedule but the crew is almost always off by SEVERAL hours but we decided to adjust to them after several requests seemed to go unheeded.More</t>
   </si>
   <si>
-    <t>Calvynz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r249044307-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -1020,9 +1374,6 @@
     <t>Family of four (kids under 18) stayed at this property over the Christmas holidays for ten nights. The property was clean and well maintained. The only complaint was housekeeping. We repeated had to ask for extra towels and new shampoo and conditioner...daily! You'd think that they would replenish shampoo and conditioner, and replace the same number of towels that they took away. Seems like either housekeeping needed to be better trained or maybe they just didn't want to be there.The breakfast area was overwhelmed on several occasions. Staff was not able to keep up with food management and cleaning the area. Perhaps the hotel needs to better staff over the holidays. Other than that, everyone was friendly and the location is ideal. Although it is on a busy street, the rooms are set back far enough that traffic noise is not a concern.More</t>
   </si>
   <si>
-    <t>Amanda C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r245033794-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -1038,7 +1389,37 @@
     <t>This was a surprisingly comfortable and clean hotel and a great price in a great area. Shopping around here is fantastic. Room was huge. Tv swiveled from the living room area to the bedroom area. Which was great. They will even go grocery shopping for you. Staff was very friendly. Parking very easy. Overall great stay and I will stay here again.</t>
   </si>
   <si>
-    <t>Kevin P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r241330530-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>241330530</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Friendly stFf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be completely honest I give them a five because of their front desk staff.  The hotel is in need of updates but it is always clean.  The front desk always wants you to be happy and comfortable.  I returned after being away for over 2 months and most of the staff remembered my name.  When you travel full time it is nice to return to a place with friendly faces.  </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r239994938-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>239994938</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Great Place, Reasonably Priced</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Residence Inn, Plano. The girls at the desk were very friendly, they showed me to my room and helped me find someplace to eat after my long trip. The room was clean and comfortable, it had a nice size kitchenette, a large T.V. and a nice desk that I used for work. They also served a very nice continental breakfast. There was something for everyone.The Residence Inn is conveniently located to the airport, about a 30 minute commute, shopping and a nice mall. I will definitely be staying there again. Thanks again for a nice stay!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r238835198-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -1056,15 +1437,6 @@
     <t>I stay here when I come to get or see my daughter.  I like Marriott and I like Residence Inn.  This is a solid unpretentious hotel.  I get burned out staying in hotels and this is a solid substitute for home.  They are brilliant having the gym away from the sleeping quarters.</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>ucmband</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r230904350-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -1086,9 +1458,6 @@
     <t>I recently stayed at this hotel, and was warmly greeted and quickly given my room, although I showed up 4 hours before check-in time.  My room was clean, breakfast came with the stay, and the parking was adequate.  The location seemed safe, and it was very easy to access a lot of shopping and restaurants.  Not hard to find.  I was very pleased.My only issue, albeit small, was that a hot breakfast was advertised, and I personally feel that that includes some type of meat.  There was the traditional waffle machine, and a toaster, and hot scrambled eggs, but no meat.  For the price and niceness of the hotel, I'll do without a piece of sausage!  I highly recommend this location.  I didn't mention it, but they do have a pool too.More</t>
   </si>
   <si>
-    <t>Dlit99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r227775655-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -1107,7 +1476,46 @@
     <t>I stayed here for business the first week of September, 2014.  Overall, I thought it was a nice place.  The room was clean and quite large with a kitchen and a nice, large screen t.v.  It also had a very nice desk area.  The bathroom floor needed some work, but that was my only complaint for the room.  They have a very nice Happy Hour every day from 6 - 7:30 which had WAY more food than your typical Happy Hour.  The first one I attended was a huge taco bar and the second one was a salad bar, pasta with chicken, and even cookies!  Of course, they offer free beer and wine too.  Hence, several nights I simply made that my dinner and never left the hotel.  They also serve a full breakfast each morning with everything from eggs and Canadian bacon to waffles, cereal, muffins, and toast.  I did, on two occasions, make use of the pool which was small but clean (and empty).  They also had a hot tub, but the water temperature appeared the same as the pool and, with it being 90+ outside, I wasn't in the mood to sit in a hot tub.  The only problems I had while there were minor: 1) When I first checked in, they gave me the wrong room and I walked in on a family! LoL and 2) My room keys stopped working on my second day there...I stayed here for business the first week of September, 2014.  Overall, I thought it was a nice place.  The room was clean and quite large with a kitchen and a nice, large screen t.v.  It also had a very nice desk area.  The bathroom floor needed some work, but that was my only complaint for the room.  They have a very nice Happy Hour every day from 6 - 7:30 which had WAY more food than your typical Happy Hour.  The first one I attended was a huge taco bar and the second one was a salad bar, pasta with chicken, and even cookies!  Of course, they offer free beer and wine too.  Hence, several nights I simply made that my dinner and never left the hotel.  They also serve a full breakfast each morning with everything from eggs and Canadian bacon to waffles, cereal, muffins, and toast.  I did, on two occasions, make use of the pool which was small but clean (and empty).  They also had a hot tub, but the water temperature appeared the same as the pool and, with it being 90+ outside, I wasn't in the mood to sit in a hot tub.  The only problems I had while there were minor: 1) When I first checked in, they gave me the wrong room and I walked in on a family! LoL and 2) My room keys stopped working on my second day there and I had to get a new one at the front desk.  However, these were both VERY minor issues and, once again, I would recommend this place.More</t>
   </si>
   <si>
-    <t>MartyMac8888</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r226299596-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>226299596</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Nice Surprise</t>
+  </si>
+  <si>
+    <t>I have never had an opportunity to stay at a Residence Inn.  We were thrilled at our visit!  Great staff!  Nice rooms!  Lobby area and commons area were perfect for our soccer team to meet before our matches.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r225077559-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>225077559</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>exceptional stay; exceptional service</t>
+  </si>
+  <si>
+    <t>During our five day stay in this particular marriott hotel (my second in the past two years),we enjoyed our usual excellent service.   However this time i would like to pay particular attentionto one member of the hotel's management team, Thyme Fordham, their front office supervisor.She was truly an outstanding employee.   From the time we checked in till we left at the earlyhours of the day, five days later; she greeted us with a smile, know our names, and engagedin conversation during our time at breakfast.  She responded to our every need.  When we hada difficulty with the room's air conditioning, she saw to it that engineering responded with a quickfix that truly worked, and ensured the problem was eliminated the next day.  no one could have done more for us.   My real point is not to speak about our interactions with thelma, but to applaud her for her daily interactions with a number of the guests.   She knew seemingly everyone by name, engaged them in conversation while relaxing at the buffet or at the front desk, and addressed their interests or concerns.  A hotel could not ask for more from any employee.  In this case, it supports my appreciation of the marriott chain that they have had the sense to employ a manager who truly understands and enjoys their job,MoreShow less</t>
+  </si>
+  <si>
+    <t>Jayne W, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded September 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2014</t>
+  </si>
+  <si>
+    <t>During our five day stay in this particular marriott hotel (my second in the past two years),we enjoyed our usual excellent service.   However this time i would like to pay particular attentionto one member of the hotel's management team, Thyme Fordham, their front office supervisor.She was truly an outstanding employee.   From the time we checked in till we left at the earlyhours of the day, five days later; she greeted us with a smile, know our names, and engagedin conversation during our time at breakfast.  She responded to our every need.  When we hada difficulty with the room's air conditioning, she saw to it that engineering responded with a quickfix that truly worked, and ensured the problem was eliminated the next day.  no one could have done more for us.   My real point is not to speak about our interactions with thelma, but to applaud her for her daily interactions with a number of the guests.   She knew seemingly everyone by name, engaged them in conversation while relaxing at the buffet or at the front desk, and addressed their interests or concerns.  A hotel could not ask for more from any employee.  In this case, it supports my appreciation of the marriott chain that they have had the sense to employ a manager who truly understands and enjoys their job,More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r223614569-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
@@ -1125,9 +1533,6 @@
     <t>Great place for the price.   If you are in Plano this is right off main street within 3 miles of Shops at Legacy.   Rooms were clean and newly renovated.   Reception was very helpful and nice.Room was a great size and clean, clean, cleanMoreShow less</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>Jayne W, Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded August 25, 2014</t>
   </si>
   <si>
@@ -1137,9 +1542,6 @@
     <t>Great place for the price.   If you are in Plano this is right off main street within 3 miles of Shops at Legacy.   Rooms were clean and newly renovated.   Reception was very helpful and nice.Room was a great size and clean, clean, cleanMore</t>
   </si>
   <si>
-    <t>thomas d</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r220936501-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -1164,9 +1566,6 @@
     <t>We stayed during a family gathering over a long weekend. The location was close to both Central expressway and the Dallas tollroad. Also, near many restaurants and shopping centers. The staff was friendly and accommodating. Studio suite w queen bed was spacious w full kitchen. Felt like home away from home. They provided real food for breakfast (scrabbled egg. Sausage, waffles, potatoes, french toast, pancakes along w cereals, fresh fruit, yogurt, muffins, bagels, toast, juices, tea and coffee). We appreciated the large selection. We would definitely recommend and stay here again. Thank you.More</t>
   </si>
   <si>
-    <t>Rajiv_Paul</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r217607810-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
   </si>
   <si>
@@ -1183,6 +1582,30 @@
   </si>
   <si>
     <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106476-r205980564-Residence_Inn_Dallas_Plano_Legacy-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>205980564</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>Newly Renovated Hotel</t>
+  </si>
+  <si>
+    <t>We stayed in the hotel for 3.5 months after a house fire. The hotel was in the progress of a renovation. The renovated rooms are beautiful. The staff was kind and helpful. We felt at home there. We would recommend it to anyone going to the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kristen H, Guest Relations Manager at Residence Inn Dallas Plano/Legacy, responded to this reviewResponded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2014</t>
+  </si>
+  <si>
+    <t>We stayed in the hotel for 3.5 months after a house fire. The hotel was in the progress of a renovation. The renovated rooms are beautiful. The staff was kind and helpful. We felt at home there. We would recommend it to anyone going to the area. More</t>
   </si>
 </sst>
 </file>
@@ -1687,55 +2110,51 @@
       <c r="A2" t="n">
         <v>36424</v>
       </c>
-      <c r="B2" t="n">
-        <v>175816</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
@@ -1745,67 +2164,65 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36424</v>
       </c>
-      <c r="B3" t="n">
-        <v>175817</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1816,63 +2233,59 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36424</v>
       </c>
-      <c r="B4" t="n">
-        <v>1216</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
       </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
         <v>4</v>
       </c>
-      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -1881,70 +2294,66 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36424</v>
       </c>
-      <c r="B5" t="n">
-        <v>175818</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1952,63 +2361,59 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36424</v>
       </c>
-      <c r="B6" t="n">
-        <v>175819</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
       <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -2017,273 +2422,241 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36424</v>
       </c>
-      <c r="B7" t="n">
-        <v>88582</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>101</v>
-      </c>
-      <c r="X7" t="s">
-        <v>102</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36424</v>
       </c>
-      <c r="B8" t="n">
-        <v>175820</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36424</v>
       </c>
-      <c r="B9" t="n">
-        <v>175821</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>118</v>
-      </c>
-      <c r="X9" t="s">
-        <v>119</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36424</v>
       </c>
-      <c r="B10" t="n">
-        <v>175822</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="n">
         <v>5</v>
       </c>
@@ -2295,341 +2668,321 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36424</v>
       </c>
-      <c r="B11" t="n">
-        <v>106473</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36424</v>
       </c>
-      <c r="B12" t="n">
-        <v>175823</v>
-      </c>
-      <c r="C12" t="s">
-        <v>141</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36424</v>
       </c>
-      <c r="B13" t="n">
-        <v>44517</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36424</v>
       </c>
-      <c r="B14" t="n">
-        <v>175824</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>163</v>
-      </c>
-      <c r="X14" t="s">
-        <v>164</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36424</v>
       </c>
-      <c r="B15" t="n">
-        <v>175825</v>
-      </c>
-      <c r="C15" t="s">
-        <v>166</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>3</v>
@@ -2638,131 +2991,123 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36424</v>
       </c>
-      <c r="B16" t="n">
-        <v>175826</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36424</v>
       </c>
-      <c r="B17" t="n">
-        <v>175827</v>
-      </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2774,251 +3119,247 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="X17" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="Y17" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36424</v>
       </c>
-      <c r="B18" t="n">
-        <v>48942</v>
-      </c>
-      <c r="C18" t="s">
-        <v>194</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36424</v>
       </c>
-      <c r="B19" t="n">
-        <v>3910</v>
-      </c>
-      <c r="C19" t="s">
-        <v>204</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
       <c r="Y19" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36424</v>
       </c>
-      <c r="B20" t="n">
-        <v>9338</v>
-      </c>
-      <c r="C20" t="s">
-        <v>210</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
         <v>4</v>
       </c>
-      <c r="N20" t="s">
-        <v>216</v>
-      </c>
-      <c r="O20" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36424</v>
       </c>
-      <c r="B21" t="n">
-        <v>39726</v>
-      </c>
-      <c r="C21" t="s">
-        <v>217</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3029,1172 +3370,1118 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>201</v>
+      </c>
+      <c r="X21" t="s">
+        <v>202</v>
+      </c>
       <c r="Y21" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36424</v>
       </c>
-      <c r="B22" t="n">
-        <v>175828</v>
-      </c>
-      <c r="C22" t="s">
-        <v>224</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>201</v>
+      </c>
+      <c r="X22" t="s">
+        <v>202</v>
+      </c>
       <c r="Y22" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36424</v>
       </c>
-      <c r="B23" t="n">
-        <v>175829</v>
-      </c>
-      <c r="C23" t="s">
-        <v>230</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>215</v>
+      </c>
+      <c r="X23" t="s">
+        <v>216</v>
+      </c>
       <c r="Y23" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36424</v>
       </c>
-      <c r="B24" t="n">
-        <v>175830</v>
-      </c>
-      <c r="C24" t="s">
-        <v>237</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="J24" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" t="s">
+        <v>224</v>
+      </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36424</v>
       </c>
-      <c r="B25" t="n">
-        <v>10148</v>
-      </c>
-      <c r="C25" t="s">
-        <v>245</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>232</v>
+      </c>
+      <c r="X25" t="s">
+        <v>233</v>
+      </c>
       <c r="Y25" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36424</v>
       </c>
-      <c r="B26" t="n">
-        <v>175831</v>
-      </c>
-      <c r="C26" t="s">
-        <v>252</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="X26" t="s">
+        <v>241</v>
+      </c>
       <c r="Y26" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36424</v>
       </c>
-      <c r="B27" t="n">
-        <v>18093</v>
-      </c>
-      <c r="C27" t="s">
-        <v>259</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s">
-        <v>127</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>248</v>
+      </c>
+      <c r="X27" t="s">
+        <v>249</v>
+      </c>
       <c r="Y27" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36424</v>
       </c>
-      <c r="B28" t="n">
-        <v>175832</v>
-      </c>
-      <c r="C28" t="s">
-        <v>266</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>257</v>
+      </c>
+      <c r="X28" t="s">
+        <v>258</v>
+      </c>
       <c r="Y28" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36424</v>
       </c>
-      <c r="B29" t="n">
-        <v>32803</v>
-      </c>
-      <c r="C29" t="s">
-        <v>273</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>257</v>
+      </c>
+      <c r="X29" t="s">
+        <v>258</v>
+      </c>
       <c r="Y29" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36424</v>
       </c>
-      <c r="B30" t="n">
-        <v>175833</v>
-      </c>
-      <c r="C30" t="s">
-        <v>281</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>270</v>
+      </c>
+      <c r="X30" t="s">
+        <v>271</v>
+      </c>
       <c r="Y30" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36424</v>
       </c>
-      <c r="B31" t="n">
-        <v>175834</v>
-      </c>
-      <c r="C31" t="s">
-        <v>288</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="K31" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36424</v>
       </c>
-      <c r="B32" t="n">
-        <v>6644</v>
-      </c>
-      <c r="C32" t="s">
-        <v>294</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>284</v>
+      </c>
+      <c r="X32" t="s">
+        <v>285</v>
+      </c>
       <c r="Y32" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36424</v>
       </c>
-      <c r="B33" t="n">
-        <v>175835</v>
-      </c>
-      <c r="C33" t="s">
-        <v>301</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>307</v>
+        <v>195</v>
       </c>
       <c r="O33" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36424</v>
       </c>
-      <c r="B34" t="n">
-        <v>90954</v>
-      </c>
-      <c r="C34" t="s">
-        <v>309</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36424</v>
       </c>
-      <c r="B35" t="n">
-        <v>175836</v>
-      </c>
-      <c r="C35" t="s">
-        <v>316</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="J35" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36424</v>
       </c>
-      <c r="B36" t="n">
-        <v>175837</v>
-      </c>
-      <c r="C36" t="s">
-        <v>324</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="J36" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>3</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>331</v>
-      </c>
-      <c r="X36" t="s">
-        <v>332</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36424</v>
       </c>
-      <c r="B37" t="n">
-        <v>11315</v>
-      </c>
-      <c r="C37" t="s">
-        <v>334</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="J37" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="K37" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36424</v>
       </c>
-      <c r="B38" t="n">
-        <v>575</v>
-      </c>
-      <c r="C38" t="s">
-        <v>340</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="J38" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="K38" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s">
-        <v>347</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36424</v>
       </c>
-      <c r="B39" t="n">
-        <v>175838</v>
-      </c>
-      <c r="C39" t="s">
-        <v>348</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="J39" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="K39" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="L39" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4202,66 +4489,60 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36424</v>
       </c>
-      <c r="B40" t="n">
-        <v>175839</v>
-      </c>
-      <c r="C40" t="s">
-        <v>356</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="J40" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="K40" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4269,132 +4550,120 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36424</v>
       </c>
-      <c r="B41" t="n">
-        <v>175840</v>
-      </c>
-      <c r="C41" t="s">
-        <v>363</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="J41" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="K41" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="O41" t="s">
-        <v>54</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>370</v>
-      </c>
-      <c r="X41" t="s">
-        <v>371</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36424</v>
       </c>
-      <c r="B42" t="n">
-        <v>175841</v>
-      </c>
-      <c r="C42" t="s">
-        <v>373</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="K42" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="L42" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
+      <c r="N42" t="s">
+        <v>343</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
       <c r="P42" t="n">
         <v>5</v>
       </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4402,68 +4671,62 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>379</v>
-      </c>
-      <c r="X42" t="s">
-        <v>380</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36424</v>
       </c>
-      <c r="B43" t="n">
-        <v>175842</v>
-      </c>
-      <c r="C43" t="s">
-        <v>382</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="J43" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="K43" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4474,7 +4737,1806 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>350</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J44" t="s">
+        <v>352</v>
+      </c>
+      <c r="K44" t="s">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s">
+        <v>354</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>349</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>356</v>
+      </c>
+      <c r="J45" t="s">
+        <v>357</v>
+      </c>
+      <c r="K45" t="s">
+        <v>358</v>
+      </c>
+      <c r="L45" t="s">
+        <v>359</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>343</v>
+      </c>
+      <c r="O45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>361</v>
+      </c>
+      <c r="J46" t="s">
+        <v>362</v>
+      </c>
+      <c r="K46" t="s">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s">
+        <v>364</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>343</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>366</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>367</v>
+      </c>
+      <c r="J47" t="s">
+        <v>368</v>
+      </c>
+      <c r="K47" t="s">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s">
+        <v>370</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>371</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>372</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>373</v>
+      </c>
+      <c r="J48" t="s">
+        <v>368</v>
+      </c>
+      <c r="K48" t="s">
+        <v>374</v>
+      </c>
+      <c r="L48" t="s">
+        <v>375</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>371</v>
+      </c>
+      <c r="O48" t="s">
+        <v>376</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>377</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>378</v>
+      </c>
+      <c r="J49" t="s">
+        <v>379</v>
+      </c>
+      <c r="K49" t="s">
+        <v>380</v>
+      </c>
+      <c r="L49" t="s">
+        <v>381</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>371</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>383</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50" t="s">
+        <v>385</v>
+      </c>
+      <c r="K50" t="s">
+        <v>386</v>
+      </c>
+      <c r="L50" t="s">
         <v>387</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>388</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>389</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>390</v>
+      </c>
+      <c r="J51" t="s">
+        <v>391</v>
+      </c>
+      <c r="K51" t="s">
+        <v>392</v>
+      </c>
+      <c r="L51" t="s">
+        <v>393</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>388</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>394</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>395</v>
+      </c>
+      <c r="J52" t="s">
+        <v>396</v>
+      </c>
+      <c r="K52" t="s">
+        <v>397</v>
+      </c>
+      <c r="L52" t="s">
+        <v>398</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>399</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>400</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>401</v>
+      </c>
+      <c r="J53" t="s">
+        <v>402</v>
+      </c>
+      <c r="K53" t="s">
+        <v>403</v>
+      </c>
+      <c r="L53" t="s">
+        <v>404</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>405</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>406</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>407</v>
+      </c>
+      <c r="J54" t="s">
+        <v>408</v>
+      </c>
+      <c r="K54" t="s">
+        <v>409</v>
+      </c>
+      <c r="L54" t="s">
+        <v>410</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>405</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>411</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>412</v>
+      </c>
+      <c r="J55" t="s">
+        <v>413</v>
+      </c>
+      <c r="K55" t="s">
+        <v>414</v>
+      </c>
+      <c r="L55" t="s">
+        <v>415</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>416</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>418</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>419</v>
+      </c>
+      <c r="J56" t="s">
+        <v>420</v>
+      </c>
+      <c r="K56" t="s">
+        <v>421</v>
+      </c>
+      <c r="L56" t="s">
+        <v>422</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>423</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>424</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>425</v>
+      </c>
+      <c r="J57" t="s">
+        <v>426</v>
+      </c>
+      <c r="K57" t="s">
+        <v>427</v>
+      </c>
+      <c r="L57" t="s">
+        <v>428</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>423</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>430</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>431</v>
+      </c>
+      <c r="J58" t="s">
+        <v>432</v>
+      </c>
+      <c r="K58" t="s">
+        <v>433</v>
+      </c>
+      <c r="L58" t="s">
+        <v>434</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>435</v>
+      </c>
+      <c r="O58" t="s">
+        <v>132</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>436</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>437</v>
+      </c>
+      <c r="J59" t="s">
+        <v>438</v>
+      </c>
+      <c r="K59" t="s">
+        <v>439</v>
+      </c>
+      <c r="L59" t="s">
+        <v>440</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>441</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>443</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>444</v>
+      </c>
+      <c r="J60" t="s">
+        <v>445</v>
+      </c>
+      <c r="K60" t="s">
+        <v>446</v>
+      </c>
+      <c r="L60" t="s">
+        <v>447</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>448</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>449</v>
+      </c>
+      <c r="X60" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>452</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>453</v>
+      </c>
+      <c r="J61" t="s">
+        <v>454</v>
+      </c>
+      <c r="K61" t="s">
+        <v>455</v>
+      </c>
+      <c r="L61" t="s">
+        <v>456</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>448</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>457</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>458</v>
+      </c>
+      <c r="J62" t="s">
+        <v>459</v>
+      </c>
+      <c r="K62" t="s">
+        <v>460</v>
+      </c>
+      <c r="L62" t="s">
+        <v>461</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>462</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>463</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>464</v>
+      </c>
+      <c r="J63" t="s">
+        <v>465</v>
+      </c>
+      <c r="K63" t="s">
+        <v>466</v>
+      </c>
+      <c r="L63" t="s">
+        <v>467</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>462</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>468</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>469</v>
+      </c>
+      <c r="J64" t="s">
+        <v>470</v>
+      </c>
+      <c r="K64" t="s">
+        <v>471</v>
+      </c>
+      <c r="L64" t="s">
+        <v>472</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>462</v>
+      </c>
+      <c r="O64" t="s">
+        <v>376</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>473</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>474</v>
+      </c>
+      <c r="J65" t="s">
+        <v>475</v>
+      </c>
+      <c r="K65" t="s">
+        <v>476</v>
+      </c>
+      <c r="L65" t="s">
+        <v>477</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>478</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>480</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>481</v>
+      </c>
+      <c r="J66" t="s">
+        <v>482</v>
+      </c>
+      <c r="K66" t="s">
+        <v>483</v>
+      </c>
+      <c r="L66" t="s">
+        <v>484</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>478</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>486</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>487</v>
+      </c>
+      <c r="J67" t="s">
+        <v>488</v>
+      </c>
+      <c r="K67" t="s">
+        <v>489</v>
+      </c>
+      <c r="L67" t="s">
+        <v>490</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>491</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>492</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>493</v>
+      </c>
+      <c r="J68" t="s">
+        <v>494</v>
+      </c>
+      <c r="K68" t="s">
+        <v>495</v>
+      </c>
+      <c r="L68" t="s">
+        <v>496</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>491</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>497</v>
+      </c>
+      <c r="X68" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>500</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>501</v>
+      </c>
+      <c r="J69" t="s">
+        <v>502</v>
+      </c>
+      <c r="K69" t="s">
+        <v>503</v>
+      </c>
+      <c r="L69" t="s">
+        <v>504</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>491</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>505</v>
+      </c>
+      <c r="X69" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>508</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>509</v>
+      </c>
+      <c r="J70" t="s">
+        <v>510</v>
+      </c>
+      <c r="K70" t="s">
+        <v>511</v>
+      </c>
+      <c r="L70" t="s">
+        <v>512</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>513</v>
+      </c>
+      <c r="X70" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>516</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>517</v>
+      </c>
+      <c r="J71" t="s">
+        <v>518</v>
+      </c>
+      <c r="K71" t="s">
+        <v>519</v>
+      </c>
+      <c r="L71" t="s">
+        <v>520</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>521</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36424</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>522</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>523</v>
+      </c>
+      <c r="J72" t="s">
+        <v>524</v>
+      </c>
+      <c r="K72" t="s">
+        <v>525</v>
+      </c>
+      <c r="L72" t="s">
+        <v>526</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>527</v>
+      </c>
+      <c r="X72" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
